--- a/part4/tables-4/dom_validty_part-4.xlsx
+++ b/part4/tables-4/dom_validty_part-4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="8">
   <si>
     <t>Test ID</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['crest submerge with crown wall', 'crest submerge']</t>
   </si>
 </sst>
 </file>
@@ -420,1248 +423,1452 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1607</v>
+        <v>3500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.00017</v>
+        <v>8.1E-05</v>
       </c>
       <c r="D2">
-        <v>0.000331</v>
+        <v>0.000118</v>
       </c>
       <c r="F2">
-        <v>-0.939548</v>
+        <v>-0.454432</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>916</v>
+        <v>1131</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.00286</v>
+        <v>9E-06</v>
       </c>
       <c r="D3">
-        <v>0.003237</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F3">
-        <v>-0.131916</v>
+        <v>-0.226557</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1383</v>
+        <v>3363</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.000314</v>
+        <v>6.2E-05</v>
       </c>
       <c r="D4">
-        <v>0.000102</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F4">
-        <v>0.675195</v>
+        <v>0.6341020000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>489</v>
+        <v>3377</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.0006579999999999999</v>
+        <v>5.2E-05</v>
       </c>
       <c r="D5">
-        <v>0.000218</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F5">
-        <v>0.668259</v>
+        <v>0.684527</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>314</v>
+        <v>3636</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>8.8E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="D6">
-        <v>6E-05</v>
+        <v>6.8E-05</v>
       </c>
       <c r="F6">
-        <v>0.313331</v>
+        <v>-6.908338</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1463</v>
+        <v>3799</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>8E-06</v>
+        <v>1E-05</v>
       </c>
       <c r="D7">
-        <v>1.8E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="F7">
-        <v>-1.396124</v>
+        <v>-0.015474</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>31</v>
+        <v>2191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.000505</v>
+        <v>0.002997</v>
       </c>
       <c r="D8">
-        <v>0.000215</v>
+        <v>0.003604</v>
       </c>
       <c r="F8">
-        <v>0.574612</v>
+        <v>-0.202685</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1798</v>
+        <v>2959</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.000214</v>
+        <v>0.001204</v>
       </c>
       <c r="D9">
-        <v>6.8E-05</v>
+        <v>0.000888</v>
       </c>
       <c r="F9">
-        <v>0.683477</v>
+        <v>0.262479</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1735</v>
+        <v>3955</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="D10">
-        <v>1.5E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="F10">
-        <v>-0.537856</v>
+        <v>0.195862</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>1189</v>
+        <v>3494</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>8E-06</v>
+        <v>0.000394</v>
       </c>
       <c r="D11">
-        <v>8E-06</v>
+        <v>0.000323</v>
       </c>
       <c r="F11">
-        <v>0.015521</v>
+        <v>0.181192</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>1174</v>
+        <v>4144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>0.000145</v>
+        <v>0.001638</v>
       </c>
       <c r="D12">
-        <v>8.000000000000001E-05</v>
+        <v>0.001577</v>
       </c>
       <c r="F12">
-        <v>0.450086</v>
+        <v>0.037563</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>1726</v>
+        <v>2997</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>9.7E-05</v>
+        <v>0.00176</v>
       </c>
       <c r="D13">
-        <v>0.000143</v>
+        <v>0.001248</v>
       </c>
       <c r="F13">
-        <v>-0.47647</v>
+        <v>0.290938</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>719</v>
+        <v>2819</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.001869</v>
+        <v>0.0002</v>
       </c>
       <c r="D14">
-        <v>0.00165</v>
+        <v>0.000211</v>
       </c>
       <c r="F14">
-        <v>0.117344</v>
+        <v>-0.056336</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>141</v>
+        <v>3780</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>0.00035</v>
+        <v>0.000165</v>
       </c>
       <c r="D15">
-        <v>0.000317</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F15">
-        <v>0.094185</v>
+        <v>0.614862</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>537</v>
+        <v>2114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>0.0006579999999999999</v>
+        <v>6.1E-05</v>
       </c>
       <c r="D16">
-        <v>0.000209</v>
+        <v>0.00012</v>
       </c>
       <c r="F16">
-        <v>0.681937</v>
+        <v>-0.991166</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>808</v>
+        <v>4328</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.001914</v>
+        <v>0.000157</v>
       </c>
       <c r="D17">
-        <v>0.002902</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F17">
-        <v>-0.516266</v>
+        <v>0.476343</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>427</v>
+        <v>2555</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0.001093</v>
+        <v>6.2E-05</v>
       </c>
       <c r="D18">
-        <v>0.000449</v>
+        <v>0.000215</v>
       </c>
       <c r="F18">
-        <v>0.589616</v>
+        <v>-2.472671</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>65</v>
+        <v>3841</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0.003614</v>
+        <v>4E-06</v>
       </c>
       <c r="D19">
-        <v>0.003127</v>
+        <v>5E-06</v>
       </c>
       <c r="F19">
-        <v>0.134731</v>
+        <v>-0.21436</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>378</v>
+        <v>3159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.001426</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D20">
-        <v>0.001129</v>
+        <v>0.00091</v>
       </c>
       <c r="F20">
-        <v>0.208139</v>
+        <v>-14.637284</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>1655</v>
+        <v>4417</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>0.000345</v>
+        <v>2E-05</v>
       </c>
       <c r="D21">
-        <v>0.000392</v>
+        <v>1E-05</v>
       </c>
       <c r="F21">
-        <v>-0.133799</v>
+        <v>0.487025</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>889</v>
+        <v>3395</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.00181</v>
+        <v>0.000834</v>
       </c>
       <c r="D22">
-        <v>0.003954</v>
+        <v>0.000431</v>
       </c>
       <c r="F22">
-        <v>-1.184482</v>
+        <v>0.483622</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>522</v>
+        <v>4369</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>7E-06</v>
+        <v>0.000633</v>
       </c>
       <c r="D23">
-        <v>7.8E-05</v>
+        <v>0.000567</v>
       </c>
       <c r="F23">
-        <v>-10.136014</v>
+        <v>0.10416</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>868</v>
+        <v>4404</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>0.000233</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D24">
-        <v>0.00019</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F24">
-        <v>0.185506</v>
+        <v>-2.443095</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>619</v>
+        <v>3704</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>9.7E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D25">
-        <v>4.2E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F25">
-        <v>0.561878</v>
+        <v>0.662111</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>331</v>
+        <v>3957</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>0.000708</v>
+        <v>7.4E-05</v>
       </c>
       <c r="D26">
-        <v>0.00123</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F26">
-        <v>-0.736615</v>
+        <v>0.816867</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>1759</v>
+        <v>4296</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>1.2E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="D27">
-        <v>1E-05</v>
+        <v>6.8E-05</v>
       </c>
       <c r="F27">
-        <v>0.202169</v>
+        <v>-0.319998</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1242</v>
+        <v>4368</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>5E-06</v>
+        <v>0.000597</v>
       </c>
       <c r="D28">
-        <v>8E-06</v>
+        <v>0.000545</v>
       </c>
       <c r="F28">
-        <v>-0.571673</v>
+        <v>0.086132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>1791</v>
+        <v>3167</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>1.8E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D29">
-        <v>3.3E-05</v>
+        <v>0.000127</v>
       </c>
       <c r="F29">
-        <v>-0.856947</v>
+        <v>-2.478553</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>728</v>
+        <v>2690</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0.003954</v>
+        <v>0.001093</v>
       </c>
       <c r="D30">
-        <v>0.003055</v>
+        <v>0.000459</v>
       </c>
       <c r="F30">
-        <v>0.22739</v>
+        <v>0.579643</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>1617</v>
+        <v>4323</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>0.000111</v>
+        <v>0.000144</v>
       </c>
       <c r="D31">
-        <v>6.9E-05</v>
+        <v>0.000127</v>
       </c>
       <c r="F31">
-        <v>0.380563</v>
+        <v>0.117273</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>732</v>
+        <v>1006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>0.000245</v>
+        <v>0.001419</v>
       </c>
       <c r="D32">
-        <v>0.000334</v>
+        <v>0.002545</v>
       </c>
       <c r="F32">
-        <v>-0.361308</v>
+        <v>-0.794049</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>50</v>
+        <v>2936</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>0.001139</v>
+        <v>0.000676</v>
       </c>
       <c r="D33">
-        <v>0.000425</v>
+        <v>0.000438</v>
       </c>
       <c r="F33">
-        <v>0.626591</v>
+        <v>0.352688</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>340</v>
+        <v>3308</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>0.000581</v>
+        <v>0.000176</v>
       </c>
       <c r="D34">
-        <v>0.00119</v>
+        <v>4E-05</v>
       </c>
       <c r="F34">
-        <v>-1.048965</v>
+        <v>0.773247</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>933</v>
+        <v>3390</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>0.00551</v>
+        <v>6.8E-05</v>
       </c>
       <c r="D35">
-        <v>0.004187</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F35">
-        <v>0.240029</v>
+        <v>0.381508</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>1085</v>
+        <v>3198</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>6.3E-05</v>
+        <v>0.003942</v>
       </c>
       <c r="D36">
-        <v>5.5E-05</v>
+        <v>0.004978</v>
       </c>
       <c r="F36">
-        <v>0.127057</v>
+        <v>-0.262816</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>573</v>
+        <v>3679</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>0.008300999999999999</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D37">
-        <v>0.007915999999999999</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F37">
-        <v>0.04638</v>
+        <v>0.372244</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>1593</v>
+        <v>3966</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>0.000382</v>
+        <v>3E-06</v>
       </c>
       <c r="D38">
-        <v>0.000261</v>
+        <v>3E-06</v>
       </c>
       <c r="F38">
-        <v>0.317854</v>
+        <v>-0.07575</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>1541</v>
+        <v>2574</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>4.9E-05</v>
+        <v>0.000198</v>
       </c>
       <c r="D39">
-        <v>7.3E-05</v>
+        <v>0.000188</v>
       </c>
       <c r="F39">
-        <v>-0.488752</v>
+        <v>0.050827</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>532</v>
+        <v>2597</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>0.000767</v>
+        <v>7.3E-05</v>
       </c>
       <c r="D40">
-        <v>0.000174</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F40">
-        <v>0.773427</v>
+        <v>0.307832</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>540</v>
+        <v>2111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.00042</v>
+        <v>0.000705</v>
       </c>
       <c r="D41">
-        <v>0.000277</v>
+        <v>0.000669</v>
       </c>
       <c r="F41">
-        <v>0.339641</v>
+        <v>0.050364</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>1437</v>
+        <v>3845</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>0.000494</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D42">
-        <v>0.000129</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F42">
-        <v>0.739401</v>
+        <v>0.068844</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>1799</v>
+        <v>2858</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>0.000403</v>
+        <v>0.001565</v>
       </c>
       <c r="D43">
-        <v>0.000526</v>
+        <v>0.000398</v>
       </c>
       <c r="F43">
-        <v>-0.306286</v>
+        <v>0.745377</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>296</v>
+        <v>3178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>4.8E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D44">
-        <v>5.1E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="F44">
-        <v>-0.066136</v>
+        <v>-1.485959</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>643</v>
+        <v>3360</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>2.6E-05</v>
+        <v>0.000248</v>
       </c>
       <c r="D45">
-        <v>6.3E-05</v>
+        <v>0.000197</v>
       </c>
       <c r="F45">
-        <v>-1.367739</v>
+        <v>0.204008</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>399</v>
+        <v>4294</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.000328</v>
+        <v>0.000132</v>
       </c>
       <c r="D46">
-        <v>0.000972</v>
+        <v>0.000139</v>
       </c>
       <c r="F46">
-        <v>-1.958915</v>
+        <v>-0.055482</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>1506</v>
+        <v>3993</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>0.000178</v>
+        <v>0.000687</v>
       </c>
       <c r="D47">
-        <v>0.00046</v>
+        <v>0.000125</v>
       </c>
       <c r="F47">
-        <v>-1.582802</v>
+        <v>0.818557</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>261</v>
+        <v>3897</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>5.8E-05</v>
+        <v>0.000415</v>
       </c>
       <c r="D48">
-        <v>0.000161</v>
+        <v>0.000247</v>
       </c>
       <c r="F48">
-        <v>-1.772628</v>
+        <v>0.405187</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1338</v>
+        <v>3927</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>3E-06</v>
+        <v>6E-06</v>
       </c>
       <c r="D49">
-        <v>9E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="F49">
-        <v>-2.64057</v>
+        <v>0.668307</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1231</v>
+        <v>1256</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>3.6E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="D50">
-        <v>1.5E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F50">
-        <v>0.581102</v>
+        <v>-0.755621</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>215</v>
+        <v>2197</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>0.001533</v>
+        <v>0.000799</v>
       </c>
       <c r="D51">
-        <v>0.002289</v>
+        <v>0.000648</v>
       </c>
       <c r="F51">
-        <v>-0.493246</v>
+        <v>0.18906</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1663</v>
+        <v>4373</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>0.00048</v>
+        <v>0.000646</v>
       </c>
       <c r="D52">
-        <v>0.000581</v>
+        <v>0.000546</v>
       </c>
       <c r="F52">
-        <v>-0.211129</v>
+        <v>0.155584</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>134</v>
+        <v>2230</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>0.000892</v>
+        <v>0.001074</v>
       </c>
       <c r="D53">
-        <v>0.0008809999999999999</v>
+        <v>0.000598</v>
       </c>
       <c r="F53">
-        <v>0.012189</v>
+        <v>0.443492</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1515</v>
+        <v>3954</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>5E-06</v>
+        <v>4E-05</v>
       </c>
       <c r="D54">
-        <v>0.000129</v>
+        <v>5E-05</v>
       </c>
       <c r="F54">
-        <v>-26.16409</v>
+        <v>-0.24614</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1850</v>
+        <v>3317</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>1.7E-05</v>
+        <v>0.000302</v>
       </c>
       <c r="D55">
-        <v>2.6E-05</v>
+        <v>0.000165</v>
       </c>
       <c r="F55">
-        <v>-0.506644</v>
+        <v>0.451979</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1376</v>
+        <v>3747</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>0.000187</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D56">
-        <v>1.6E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F56">
-        <v>0.91286</v>
+        <v>0.20582</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1095</v>
+        <v>3145</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>7.9E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D57">
-        <v>6.1E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F57">
-        <v>0.23641</v>
+        <v>0.578611</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1274</v>
+        <v>2188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>8.500000000000001E-05</v>
+        <v>0.003216</v>
       </c>
       <c r="D58">
-        <v>0.000135</v>
+        <v>0.004112</v>
       </c>
       <c r="F58">
-        <v>-0.581537</v>
+        <v>-0.278559</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>863</v>
+        <v>2419</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>0.00409</v>
+        <v>0.000126</v>
       </c>
       <c r="D59">
-        <v>0.003459</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="F59">
-        <v>0.154325</v>
+        <v>-6.916388</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1638</v>
+        <v>2337</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
-        <v>0.000574</v>
+        <v>0.002556</v>
       </c>
       <c r="D60">
-        <v>0.000442</v>
+        <v>0.002311</v>
       </c>
       <c r="F60">
-        <v>0.230533</v>
+        <v>0.095884</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>387</v>
+        <v>4136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>8.3E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D61">
-        <v>0.000231</v>
+        <v>0.000104</v>
       </c>
       <c r="F61">
-        <v>-1.783249</v>
+        <v>-2.766408</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1012</v>
+        <v>3801</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>7E-06</v>
+        <v>5.7E-05</v>
       </c>
       <c r="D62">
-        <v>3.1E-05</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F62">
-        <v>-3.562443</v>
+        <v>-0.510607</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>896</v>
+        <v>1091</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>0.00509</v>
+        <v>2.4E-05</v>
       </c>
       <c r="D63">
-        <v>0.005907</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F63">
-        <v>-0.160578</v>
+        <v>-0.402857</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1013</v>
+        <v>2633</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>5E-06</v>
+        <v>0.000298</v>
       </c>
       <c r="D64">
-        <v>8E-06</v>
+        <v>0.000475</v>
       </c>
       <c r="F64">
-        <v>-0.586589</v>
+        <v>-0.59306</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>684</v>
+        <v>3951</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>1E-06</v>
+        <v>3.9E-05</v>
       </c>
       <c r="D65">
-        <v>4.1E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F65">
-        <v>-36.414873</v>
+        <v>0.558127</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>778</v>
+        <v>4002</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>2.6E-05</v>
+        <v>0.000314</v>
       </c>
       <c r="D66">
-        <v>9.399999999999999E-05</v>
+        <v>0.000112</v>
       </c>
       <c r="F66">
-        <v>-2.681882</v>
+        <v>0.6451249999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>711</v>
+        <v>2400</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>0.000124</v>
+        <v>0.002842</v>
       </c>
       <c r="D67">
-        <v>0.000114</v>
+        <v>0.001335</v>
       </c>
       <c r="F67">
-        <v>0.078971</v>
+        <v>0.530184</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>954</v>
+        <v>4389</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.000111</v>
+        <v>0.000179</v>
       </c>
       <c r="D68">
-        <v>8.7E-05</v>
+        <v>0.000107</v>
       </c>
       <c r="F68">
-        <v>0.218776</v>
+        <v>0.402537</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1472</v>
+        <v>3816</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>0.000378</v>
+        <v>3E-05</v>
       </c>
       <c r="D69">
-        <v>0.00046</v>
+        <v>1E-05</v>
       </c>
       <c r="F69">
-        <v>-0.216807</v>
+        <v>0.657363</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1632</v>
+        <v>2083</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.000781</v>
+        <v>8.2E-05</v>
       </c>
       <c r="D70">
-        <v>0.000559</v>
+        <v>0.000438</v>
       </c>
       <c r="F70">
-        <v>0.283668</v>
+        <v>-4.337121</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1176</v>
+        <v>3277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>5.3E-05</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D71">
-        <v>3.7E-05</v>
+        <v>0.000119</v>
       </c>
       <c r="F71">
-        <v>0.2877</v>
+        <v>-0.782517</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>947</v>
+        <v>4286</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>0.000116</v>
+        <v>4E-06</v>
       </c>
       <c r="D72">
-        <v>7.499999999999999E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F72">
-        <v>0.353662</v>
+        <v>-1.166714</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1510</v>
+        <v>2007</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>0.000807</v>
+        <v>0.000185</v>
       </c>
       <c r="D73">
-        <v>0.001447</v>
+        <v>0.000209</v>
       </c>
       <c r="F73">
-        <v>-0.794073</v>
+        <v>-0.129551</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>760</v>
+        <v>2162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>0.000484</v>
+        <v>7.6E-05</v>
       </c>
       <c r="D74">
-        <v>0.000301</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F74">
-        <v>0.378506</v>
+        <v>0.384285</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1353</v>
+        <v>2375</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>4.6E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D75">
-        <v>3.2E-05</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F75">
-        <v>0.29723</v>
+        <v>-2.284591</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1325</v>
+        <v>4261</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>6E-06</v>
+        <v>4.4E-05</v>
       </c>
       <c r="D76">
-        <v>1E-06</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F76">
-        <v>0.834087</v>
+        <v>-0.004716</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>335</v>
+        <v>3231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>0.000769</v>
+        <v>4.4E-05</v>
       </c>
       <c r="D77">
-        <v>0.00125</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F77">
-        <v>-0.62403</v>
+        <v>0.268609</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>406</v>
+        <v>2154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>0.000355</v>
+        <v>0.001023</v>
       </c>
       <c r="D78">
-        <v>0.000396</v>
+        <v>0.000712</v>
       </c>
       <c r="F78">
-        <v>-0.114085</v>
+        <v>0.303791</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>1721</v>
+        <v>2049</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>0.000101</v>
+        <v>0.000932</v>
       </c>
       <c r="D79">
-        <v>6.8E-05</v>
+        <v>0.000779</v>
       </c>
       <c r="F79">
-        <v>0.331634</v>
+        <v>0.164053</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1452</v>
+        <v>3003</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>4.5E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="D80">
-        <v>1.6E-05</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F80">
-        <v>0.641543</v>
+        <v>0.092097</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>319</v>
+        <v>4322</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>0.002428</v>
+        <v>0.000215</v>
       </c>
       <c r="D81">
-        <v>0.001731</v>
+        <v>0.000193</v>
       </c>
       <c r="F81">
-        <v>0.287076</v>
+        <v>0.104238</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>1842</v>
+        <v>2055</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
       </c>
       <c r="C82">
-        <v>0.000469</v>
+        <v>0.000474</v>
       </c>
       <c r="D82">
-        <v>0.000203</v>
+        <v>0.000256</v>
       </c>
       <c r="F82">
-        <v>0.567491</v>
+        <v>0.460446</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>674</v>
+        <v>3081</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>0.000104</v>
+        <v>0.007347</v>
       </c>
       <c r="D83">
-        <v>0.000188</v>
+        <v>0.00825</v>
       </c>
       <c r="F83">
-        <v>-0.8119499999999999</v>
+        <v>-0.122853</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>494</v>
+        <v>3775</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
       </c>
       <c r="C84">
-        <v>0.00266</v>
+        <v>0.000156</v>
       </c>
       <c r="D84">
-        <v>0.00279</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F84">
-        <v>-0.048721</v>
+        <v>0.547666</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>1152</v>
+        <v>2716</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>5.4E-05</v>
+        <v>0.000255</v>
       </c>
       <c r="D85">
-        <v>7.6E-05</v>
+        <v>9.3E-05</v>
       </c>
       <c r="F85">
-        <v>-0.417359</v>
+        <v>0.636117</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1837</v>
+        <v>1198</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>0.000179</v>
+        <v>8.1E-05</v>
       </c>
       <c r="D86">
-        <v>0.000188</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F86">
-        <v>-0.046113</v>
+        <v>0.011147</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>9</v>
+        <v>3824</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -1670,4153 +1877,4855 @@
         <v>2.3E-05</v>
       </c>
       <c r="D87">
-        <v>7E-06</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F87">
-        <v>0.677217</v>
+        <v>0.340532</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>139</v>
+        <v>4278</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>0.00248</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D88">
-        <v>0.002654</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F88">
-        <v>-0.070122</v>
+        <v>-0.10852</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>581</v>
+        <v>2251</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>0.001591</v>
+        <v>0.001878</v>
       </c>
       <c r="D89">
-        <v>0.001757</v>
+        <v>0.002437</v>
       </c>
       <c r="F89">
-        <v>-0.104036</v>
+        <v>-0.29747</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>1396</v>
+        <v>4015</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>1.7E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D90">
-        <v>3.4E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F90">
-        <v>-0.944821</v>
+        <v>-0.416628</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>15</v>
+        <v>3748</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>0.000447</v>
+        <v>0.000151</v>
       </c>
       <c r="D91">
-        <v>0.000149</v>
+        <v>0.000104</v>
       </c>
       <c r="F91">
-        <v>0.66543</v>
+        <v>0.309629</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>1213</v>
+        <v>2800</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>5E-06</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D92">
-        <v>7E-06</v>
+        <v>1E-05</v>
       </c>
       <c r="F92">
-        <v>-0.626654</v>
+        <v>0.338974</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>1594</v>
+        <v>3670</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>0.000288</v>
+        <v>5.1E-05</v>
       </c>
       <c r="D93">
-        <v>0.000197</v>
+        <v>3.7E-05</v>
       </c>
       <c r="F93">
-        <v>0.316395</v>
+        <v>0.280014</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>1811</v>
+        <v>3318</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>6.999999999999999E-05</v>
+        <v>0.000192</v>
       </c>
       <c r="D94">
-        <v>6.999999999999999E-05</v>
+        <v>0.000115</v>
       </c>
       <c r="F94">
-        <v>5.4E-05</v>
+        <v>0.402629</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>1745</v>
+        <v>3301</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>3.9E-05</v>
+        <v>0.00045</v>
       </c>
       <c r="D95">
-        <v>3.1E-05</v>
+        <v>0.000146</v>
       </c>
       <c r="F95">
-        <v>0.189915</v>
+        <v>0.676439</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>825</v>
+        <v>3873</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>0.001453</v>
+        <v>0.000239</v>
       </c>
       <c r="D96">
-        <v>0.000455</v>
+        <v>0.000329</v>
       </c>
       <c r="F96">
-        <v>0.686893</v>
+        <v>-0.374713</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>642</v>
+        <v>3787</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>3.6E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="D97">
-        <v>0.000113</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F97">
-        <v>-2.117393</v>
+        <v>-0.384693</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>1779</v>
+        <v>3313</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>1.6E-05</v>
+        <v>0.001965</v>
       </c>
       <c r="D98">
-        <v>4E-06</v>
+        <v>0.000437</v>
       </c>
       <c r="F98">
-        <v>0.767554</v>
+        <v>0.777482</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>1685</v>
+        <v>2595</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>0.000139</v>
+        <v>0.000314</v>
       </c>
       <c r="D99">
-        <v>9.000000000000001E-05</v>
+        <v>0.000188</v>
       </c>
       <c r="F99">
-        <v>0.35598</v>
+        <v>0.401498</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>749</v>
+        <v>3230</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>6.7E-05</v>
+        <v>0.000393</v>
       </c>
       <c r="D100">
-        <v>0.000125</v>
+        <v>0.000241</v>
       </c>
       <c r="F100">
-        <v>-0.863778</v>
+        <v>0.38582</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>60</v>
+        <v>3447</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>2E-06</v>
+        <v>0.0146</v>
       </c>
       <c r="D101">
-        <v>3E-06</v>
+        <v>0.015265</v>
       </c>
       <c r="F101">
-        <v>-0.265774</v>
+        <v>-0.045555</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>1412</v>
+        <v>3541</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>0.000663</v>
+        <v>3.9E-05</v>
       </c>
       <c r="D102">
-        <v>0.000129</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F102">
-        <v>0.805729</v>
+        <v>0.532455</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>915</v>
+        <v>2978</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>0.00105</v>
+        <v>0.000165</v>
       </c>
       <c r="D103">
-        <v>0.001097</v>
+        <v>9.7E-05</v>
       </c>
       <c r="F103">
-        <v>-0.044717</v>
+        <v>0.410843</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>846</v>
+        <v>2664</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104">
-        <v>0.000291</v>
+        <v>1.4E-05</v>
       </c>
       <c r="D104">
-        <v>0.000345</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F104">
-        <v>-0.186001</v>
+        <v>-0.543866</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>988</v>
+        <v>3614</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>0.000309</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D105">
-        <v>0.000191</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F105">
-        <v>0.382891</v>
+        <v>0.5830689999999999</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>1343</v>
+        <v>3862</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
       </c>
       <c r="C106">
-        <v>5E-06</v>
+        <v>9E-06</v>
       </c>
       <c r="D106">
-        <v>5E-06</v>
+        <v>6E-06</v>
       </c>
       <c r="F106">
-        <v>-0.002456</v>
+        <v>0.276642</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>1065</v>
+        <v>2779</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>2E-05</v>
+        <v>0.001565</v>
       </c>
       <c r="D107">
-        <v>1.8E-05</v>
+        <v>0.000423</v>
       </c>
       <c r="F107">
-        <v>0.116166</v>
+        <v>0.729553</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>2</v>
+        <v>4001</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>0.000108</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D108">
-        <v>0.000164</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F108">
-        <v>-0.5165689999999999</v>
+        <v>0.622511</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>208</v>
+        <v>3890</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
       </c>
       <c r="C109">
-        <v>1.6E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D109">
-        <v>0.00013</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F109">
-        <v>-7.126789</v>
+        <v>-11.966566</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>424</v>
+        <v>4076</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>3.7E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="D110">
-        <v>2.6E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F110">
-        <v>0.301741</v>
+        <v>-2.900813</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>127</v>
+        <v>3495</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>4.6E-05</v>
+        <v>0.000194</v>
       </c>
       <c r="D111">
-        <v>4.7E-05</v>
+        <v>0.000147</v>
       </c>
       <c r="F111">
-        <v>-0.02569</v>
+        <v>0.24278</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>1459</v>
+        <v>3908</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>9E-06</v>
+        <v>0.000169</v>
       </c>
       <c r="D112">
-        <v>3.2E-05</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F112">
-        <v>-2.405542</v>
+        <v>0.418466</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>892</v>
+        <v>4338</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>0.00381</v>
+        <v>0.00057</v>
       </c>
       <c r="D113">
-        <v>0.00491</v>
+        <v>0.000546</v>
       </c>
       <c r="F113">
-        <v>-0.288777</v>
+        <v>0.04172</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>146</v>
+        <v>2849</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114">
-        <v>0.003444</v>
+        <v>0.00042</v>
       </c>
       <c r="D114">
-        <v>0.00301</v>
+        <v>0.00028</v>
       </c>
       <c r="F114">
-        <v>0.126053</v>
+        <v>0.334038</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>1620</v>
+        <v>4241</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>0.000269</v>
+        <v>0.000405</v>
       </c>
       <c r="D115">
-        <v>0.000346</v>
+        <v>0.000414</v>
       </c>
       <c r="F115">
-        <v>-0.28391</v>
+        <v>-0.023968</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>1458</v>
+        <v>1178</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>8E-06</v>
+        <v>5E-06</v>
       </c>
       <c r="D116">
-        <v>3.2E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="F116">
-        <v>-2.750491</v>
+        <v>-0.264114</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>694</v>
+        <v>3724</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
       </c>
       <c r="C117">
-        <v>5.6E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D117">
-        <v>0.000109</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F117">
-        <v>-0.9425249999999999</v>
+        <v>0.160114</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>758</v>
+        <v>2643</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.000444</v>
+        <v>0.000104</v>
       </c>
       <c r="D118">
-        <v>0.000242</v>
+        <v>0.000173</v>
       </c>
       <c r="F118">
-        <v>0.45516</v>
+        <v>-0.661905</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1201</v>
+        <v>4154</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>5.7E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D119">
-        <v>7.4E-05</v>
+        <v>0.000125</v>
       </c>
       <c r="F119">
-        <v>-0.295296</v>
+        <v>-8.263139000000001</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1153</v>
+        <v>2350</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>0.000128</v>
+        <v>0.000432</v>
       </c>
       <c r="D120">
-        <v>0.000158</v>
+        <v>0.000307</v>
       </c>
       <c r="F120">
-        <v>-0.231851</v>
+        <v>0.288383</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1445</v>
+        <v>3164</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121">
-        <v>4E-06</v>
+        <v>0.000844</v>
       </c>
       <c r="D121">
-        <v>3.4E-05</v>
+        <v>0.001689</v>
       </c>
       <c r="F121">
-        <v>-7.396814</v>
+        <v>-1.001632</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>1479</v>
+        <v>3786</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
       </c>
       <c r="C122">
-        <v>1E-06</v>
+        <v>5E-06</v>
       </c>
       <c r="D122">
-        <v>8E-06</v>
+        <v>6E-06</v>
       </c>
       <c r="F122">
-        <v>-6.108767</v>
+        <v>-0.31537</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>1250</v>
+        <v>1237</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
       </c>
       <c r="C123">
-        <v>5.1E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="D123">
-        <v>4E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F123">
-        <v>0.22808</v>
+        <v>-0.964552</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>308</v>
+        <v>3475</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124">
-        <v>1.1E-05</v>
+        <v>0.00173</v>
       </c>
       <c r="D124">
-        <v>1.3E-05</v>
+        <v>0.001469</v>
       </c>
       <c r="F124">
-        <v>-0.199732</v>
+        <v>0.151129</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1478</v>
+        <v>2433</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
       </c>
       <c r="C125">
-        <v>0.001349</v>
+        <v>0.000488</v>
       </c>
       <c r="D125">
-        <v>0.001447</v>
+        <v>0.000731</v>
       </c>
       <c r="F125">
-        <v>-0.072561</v>
+        <v>-0.498746</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>905</v>
+        <v>4393</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
       </c>
       <c r="C126">
-        <v>0.00741</v>
+        <v>0.000193</v>
       </c>
       <c r="D126">
-        <v>0.006766</v>
+        <v>0.000229</v>
       </c>
       <c r="F126">
-        <v>0.08694499999999999</v>
+        <v>-0.1868</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>861</v>
+        <v>2825</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>0.000186</v>
+        <v>0.000752</v>
       </c>
       <c r="D127">
-        <v>0.000491</v>
+        <v>0.000415</v>
       </c>
       <c r="F127">
-        <v>-1.640464</v>
+        <v>0.447946</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>842</v>
+        <v>1026</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128">
-        <v>1.5E-05</v>
+        <v>0.000134</v>
       </c>
       <c r="D128">
-        <v>2.7E-05</v>
+        <v>0.000204</v>
       </c>
       <c r="F128">
-        <v>-0.800929</v>
+        <v>-0.519799</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1553</v>
+        <v>4024</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129">
-        <v>0.000296</v>
+        <v>0.000274</v>
       </c>
       <c r="D129">
-        <v>0.000164</v>
+        <v>0.000125</v>
       </c>
       <c r="F129">
-        <v>0.44466</v>
+        <v>0.545109</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>1468</v>
+        <v>3463</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
       </c>
       <c r="C130">
-        <v>2.1E-05</v>
+        <v>0.00105</v>
       </c>
       <c r="D130">
-        <v>8.7E-05</v>
+        <v>0.0009959999999999999</v>
       </c>
       <c r="F130">
-        <v>-3.202646</v>
+        <v>0.051671</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>1672</v>
+        <v>2106</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>0.000543</v>
+        <v>0.001267</v>
       </c>
       <c r="D131">
-        <v>0.000355</v>
+        <v>0.000616</v>
       </c>
       <c r="F131">
-        <v>0.345497</v>
+        <v>0.513775</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>525</v>
+        <v>3625</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
       </c>
       <c r="C132">
-        <v>0.003531</v>
+        <v>3E-06</v>
       </c>
       <c r="D132">
-        <v>0.002669</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F132">
-        <v>0.244135</v>
+        <v>-7.252077</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>377</v>
+        <v>2095</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
       </c>
       <c r="C133">
-        <v>0.0007739999999999999</v>
+        <v>0.000614</v>
       </c>
       <c r="D133">
-        <v>0.0006400000000000001</v>
+        <v>0.000247</v>
       </c>
       <c r="F133">
-        <v>0.173147</v>
+        <v>0.597673</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>1675</v>
+        <v>3239</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>0.000646</v>
+        <v>0.00022</v>
       </c>
       <c r="D134">
-        <v>0.000487</v>
+        <v>0.000333</v>
       </c>
       <c r="F134">
-        <v>0.246741</v>
+        <v>-0.51012</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>304</v>
+        <v>3802</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
       </c>
       <c r="C135">
-        <v>0.001049</v>
+        <v>3.5E-05</v>
       </c>
       <c r="D135">
-        <v>0.000635</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F135">
-        <v>0.394236</v>
+        <v>-0.502816</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>534</v>
+        <v>3647</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>4.3E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D136">
-        <v>1.2E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F136">
-        <v>0.725778</v>
+        <v>0.18456</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>1529</v>
+        <v>2436</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>1.5E-05</v>
+        <v>6.9E-05</v>
       </c>
       <c r="D137">
-        <v>3.5E-05</v>
+        <v>0.000227</v>
       </c>
       <c r="F137">
-        <v>-1.385942</v>
+        <v>-2.29657</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>1004</v>
+        <v>3126</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
       </c>
       <c r="C138">
-        <v>4E-06</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D138">
-        <v>3E-06</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F138">
-        <v>0.302869</v>
+        <v>0.390242</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>958</v>
+        <v>2919</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
       </c>
       <c r="C139">
-        <v>0.000211</v>
+        <v>0.000677</v>
       </c>
       <c r="D139">
-        <v>0.00012</v>
+        <v>0.000845</v>
       </c>
       <c r="F139">
-        <v>0.431086</v>
+        <v>-0.248024</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>206</v>
+        <v>3183</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>9E-06</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D140">
-        <v>0.000244</v>
+        <v>2.1E-05</v>
       </c>
       <c r="F140">
-        <v>-26.161308</v>
+        <v>-0.236998</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>371</v>
+        <v>2125</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141">
+        <v>4E-06</v>
+      </c>
+      <c r="D141">
         <v>8E-06</v>
       </c>
-      <c r="D141">
-        <v>4E-06</v>
-      </c>
       <c r="F141">
-        <v>0.526138</v>
+        <v>-1.271128</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>578</v>
+        <v>3685</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>2E-06</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D142">
-        <v>6.7E-05</v>
+        <v>6.2E-05</v>
       </c>
       <c r="F142">
-        <v>-33.058345</v>
+        <v>0.004791</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>637</v>
+        <v>3546</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143">
-        <v>0.000383</v>
+        <v>7E-06</v>
       </c>
       <c r="D143">
-        <v>0.000587</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F143">
-        <v>-0.534169</v>
+        <v>-1.082089</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>768</v>
+        <v>2042</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
       </c>
       <c r="C144">
-        <v>0.000796</v>
+        <v>7.9E-05</v>
       </c>
       <c r="D144">
-        <v>0.000546</v>
+        <v>6.7E-05</v>
       </c>
       <c r="F144">
-        <v>0.313081</v>
+        <v>0.144582</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>263</v>
+        <v>3257</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>0.001784</v>
+        <v>0.000102</v>
       </c>
       <c r="D145">
-        <v>0.000514</v>
+        <v>0.000165</v>
       </c>
       <c r="F145">
-        <v>0.7117019999999999</v>
+        <v>-0.609401</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>1729</v>
+        <v>2974</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
       </c>
       <c r="C146">
-        <v>7.4E-05</v>
+        <v>0.007756</v>
       </c>
       <c r="D146">
-        <v>8.8E-05</v>
+        <v>0.008283</v>
       </c>
       <c r="F146">
-        <v>-0.196687</v>
+        <v>-0.06793200000000001</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>119</v>
+        <v>3956</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
       </c>
       <c r="C147">
-        <v>0.000501</v>
+        <v>7.3E-05</v>
       </c>
       <c r="D147">
-        <v>0.000376</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F147">
-        <v>0.249587</v>
+        <v>-0.128438</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>934</v>
+        <v>4228</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148">
-        <v>0.0014</v>
+        <v>0.000114</v>
       </c>
       <c r="D148">
-        <v>0.00143</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F148">
-        <v>-0.021261</v>
+        <v>0.261943</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>1661</v>
+        <v>3915</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
       </c>
       <c r="C149">
-        <v>0.000521</v>
+        <v>9E-06</v>
       </c>
       <c r="D149">
-        <v>0.000499</v>
+        <v>7E-06</v>
       </c>
       <c r="F149">
-        <v>0.042061</v>
+        <v>0.213752</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>1098</v>
+        <v>2918</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
       </c>
       <c r="C150">
-        <v>3.1E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D150">
-        <v>3.2E-05</v>
+        <v>4.9E-05</v>
       </c>
       <c r="F150">
-        <v>-0.037155</v>
+        <v>-0.136955</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>556</v>
+        <v>3468</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
       </c>
       <c r="C151">
-        <v>2E-05</v>
+        <v>0.00474</v>
       </c>
       <c r="D151">
-        <v>8.1E-05</v>
+        <v>0.004154</v>
       </c>
       <c r="F151">
-        <v>-3.0508</v>
+        <v>0.123548</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>604</v>
+        <v>2353</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
       </c>
       <c r="C152">
-        <v>2.1E-05</v>
+        <v>0.000672</v>
       </c>
       <c r="D152">
-        <v>5.9E-05</v>
+        <v>0.0006890000000000001</v>
       </c>
       <c r="F152">
-        <v>-1.797946</v>
+        <v>-0.025517</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>908</v>
+        <v>2326</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
       </c>
       <c r="C153">
-        <v>0.00444</v>
+        <v>0.000186</v>
       </c>
       <c r="D153">
-        <v>0.002909</v>
+        <v>0.000424</v>
       </c>
       <c r="F153">
-        <v>0.344766</v>
+        <v>-1.281181</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>975</v>
+        <v>2022</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
       </c>
       <c r="C154">
-        <v>0.000289</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D154">
-        <v>0.000213</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F154">
-        <v>0.264227</v>
+        <v>-1.244408</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>553</v>
+        <v>3196</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
       </c>
       <c r="C155">
-        <v>9E-06</v>
+        <v>0.001222</v>
       </c>
       <c r="D155">
-        <v>3E-05</v>
+        <v>0.002208</v>
       </c>
       <c r="F155">
-        <v>-2.295072</v>
+        <v>-0.806704</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>1024</v>
+        <v>4164</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
       </c>
       <c r="C156">
-        <v>1.1E-05</v>
+        <v>0.00046</v>
       </c>
       <c r="D156">
-        <v>7.9E-05</v>
+        <v>0.000516</v>
       </c>
       <c r="F156">
-        <v>-5.918958</v>
+        <v>-0.120566</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>315</v>
+        <v>3538</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
       </c>
       <c r="C157">
-        <v>0.001051</v>
+        <v>0.000119</v>
       </c>
       <c r="D157">
-        <v>0.000569</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F157">
-        <v>0.4589</v>
+        <v>0.639713</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>1192</v>
+        <v>1070</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>1.3E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="D158">
-        <v>3.1E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F158">
-        <v>-1.330068</v>
+        <v>0.223738</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>667</v>
+        <v>3078</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
       </c>
       <c r="C159">
-        <v>0.000144</v>
+        <v>0.001484</v>
       </c>
       <c r="D159">
-        <v>0.000224</v>
+        <v>0.001459</v>
       </c>
       <c r="F159">
-        <v>-0.5569499999999999</v>
+        <v>0.017001</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>413</v>
+        <v>2479</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
       </c>
       <c r="C160">
-        <v>0.000648</v>
+        <v>4E-06</v>
       </c>
       <c r="D160">
-        <v>0.000485</v>
+        <v>6E-06</v>
       </c>
       <c r="F160">
-        <v>0.251127</v>
+        <v>-0.417006</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>636</v>
+        <v>3172</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
       </c>
       <c r="C161">
-        <v>0.000501</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D161">
-        <v>0.000659</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F161">
-        <v>-0.316795</v>
+        <v>-1.271271</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>1378</v>
+        <v>4130</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
       </c>
       <c r="C162">
-        <v>2E-06</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D162">
-        <v>1.3E-05</v>
+        <v>0.000114</v>
       </c>
       <c r="F162">
-        <v>-5.139394</v>
+        <v>-5.852918</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>909</v>
+        <v>3428</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
       </c>
       <c r="C163">
-        <v>0.00014</v>
+        <v>0.000432</v>
       </c>
       <c r="D163">
-        <v>0.000132</v>
+        <v>0.000307</v>
       </c>
       <c r="F163">
-        <v>0.056996</v>
+        <v>0.288382</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>1572</v>
+        <v>2840</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>1E-05</v>
+        <v>0.000806</v>
       </c>
       <c r="D164">
-        <v>2.4E-05</v>
+        <v>0.000548</v>
       </c>
       <c r="F164">
-        <v>-1.246482</v>
+        <v>0.320665</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>1113</v>
+        <v>3189</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>0.000175</v>
+        <v>0.002114</v>
       </c>
       <c r="D165">
-        <v>8.3E-05</v>
+        <v>0.001872</v>
       </c>
       <c r="F165">
-        <v>0.525937</v>
+        <v>0.114337</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>1789</v>
+        <v>2043</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.000311</v>
+        <v>0.000657</v>
       </c>
       <c r="D166">
-        <v>0.000214</v>
+        <v>0.000382</v>
       </c>
       <c r="F166">
-        <v>0.309583</v>
+        <v>0.417869</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>1758</v>
+        <v>4098</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>0.000152</v>
+        <v>8E-06</v>
       </c>
       <c r="D167">
-        <v>0.000103</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F167">
-        <v>0.320951</v>
+        <v>-0.957464</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>423</v>
+        <v>3259</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
       </c>
       <c r="C168">
-        <v>0.001436</v>
+        <v>1.4E-05</v>
       </c>
       <c r="D168">
-        <v>0.001176</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F168">
-        <v>0.181304</v>
+        <v>-1.710494</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>1418</v>
+        <v>4020</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>0.000985</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D169">
-        <v>0.000537</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F169">
-        <v>0.455268</v>
+        <v>0.625146</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>1723</v>
+        <v>2869</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
       </c>
       <c r="C170">
-        <v>1.7E-05</v>
+        <v>0.001803</v>
       </c>
       <c r="D170">
-        <v>2E-05</v>
+        <v>0.001618</v>
       </c>
       <c r="F170">
-        <v>-0.179289</v>
+        <v>0.102754</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>22</v>
+        <v>2199</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
       </c>
       <c r="C171">
-        <v>0.000227</v>
+        <v>0.000144</v>
       </c>
       <c r="D171">
-        <v>7.3E-05</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F171">
-        <v>0.678017</v>
+        <v>0.408602</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>1092</v>
+        <v>4043</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
       </c>
       <c r="C172">
-        <v>4.3E-05</v>
+        <v>0.000985</v>
       </c>
       <c r="D172">
-        <v>4.9E-05</v>
+        <v>0.000547</v>
       </c>
       <c r="F172">
-        <v>-0.140388</v>
+        <v>0.445107</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>1358</v>
+        <v>3466</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
       <c r="C173">
-        <v>1.3E-05</v>
+        <v>0.00718</v>
       </c>
       <c r="D173">
-        <v>3E-06</v>
+        <v>0.007820000000000001</v>
       </c>
       <c r="F173">
-        <v>0.743583</v>
+        <v>-0.089112</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>1732</v>
+        <v>3483</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
       </c>
       <c r="C174">
-        <v>9.500000000000001E-05</v>
+        <v>0.0014</v>
       </c>
       <c r="D174">
-        <v>0.000143</v>
+        <v>0.001443</v>
       </c>
       <c r="F174">
-        <v>-0.499184</v>
+        <v>-0.030986</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>1639</v>
+        <v>3895</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
       </c>
       <c r="C175">
-        <v>0.000651</v>
+        <v>0.00054</v>
       </c>
       <c r="D175">
-        <v>0.000762</v>
+        <v>0.00038</v>
       </c>
       <c r="F175">
-        <v>-0.170763</v>
+        <v>0.29655</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>476</v>
+        <v>3503</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
       </c>
       <c r="C176">
-        <v>0.003415</v>
+        <v>0.000111</v>
       </c>
       <c r="D176">
-        <v>0.002893</v>
+        <v>0.000113</v>
       </c>
       <c r="F176">
-        <v>0.152715</v>
+        <v>-0.021918</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>415</v>
+        <v>3678</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
       </c>
       <c r="C177">
-        <v>0.000639</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D177">
-        <v>0.000686</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F177">
-        <v>-0.073159</v>
+        <v>0.266237</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>1216</v>
+        <v>2952</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
       </c>
       <c r="C178">
-        <v>3E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D178">
-        <v>1.1E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F178">
-        <v>0.633439</v>
+        <v>-0.297728</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>789</v>
+        <v>4083</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
       </c>
       <c r="C179">
-        <v>0.0008229999999999999</v>
+        <v>2E-06</v>
       </c>
       <c r="D179">
-        <v>0.000401</v>
+        <v>4E-06</v>
       </c>
       <c r="F179">
-        <v>0.512813</v>
+        <v>-1.570405</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>1546</v>
+        <v>3979</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
       </c>
       <c r="C180">
-        <v>2.6E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D180">
-        <v>4E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="F180">
-        <v>-0.544112</v>
+        <v>0.354677</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>388</v>
+        <v>3871</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
       <c r="C181">
-        <v>0.000298</v>
+        <v>6E-05</v>
       </c>
       <c r="D181">
-        <v>0.000467</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F181">
-        <v>-0.566185</v>
+        <v>-0.252146</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>1215</v>
+        <v>2553</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
       </c>
       <c r="C182">
-        <v>2.7E-05</v>
+        <v>0.000891</v>
       </c>
       <c r="D182">
-        <v>2.2E-05</v>
+        <v>0.000947</v>
       </c>
       <c r="F182">
-        <v>0.174505</v>
+        <v>-0.062014</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>1420</v>
+        <v>4113</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
       </c>
       <c r="C183">
-        <v>2E-06</v>
+        <v>0.000465</v>
       </c>
       <c r="D183">
-        <v>1.1E-05</v>
+        <v>0.000547</v>
       </c>
       <c r="F183">
-        <v>-6.128326</v>
+        <v>-0.175401</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>266</v>
+        <v>4287</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
       </c>
       <c r="C184">
-        <v>0.000653</v>
+        <v>4E-06</v>
       </c>
       <c r="D184">
-        <v>0.002019</v>
+        <v>6E-06</v>
       </c>
       <c r="F184">
-        <v>-2.091634</v>
+        <v>-0.431433</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>29</v>
+        <v>2139</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
       </c>
       <c r="C185">
-        <v>7.7E-05</v>
+        <v>0.00026</v>
       </c>
       <c r="D185">
-        <v>3.5E-05</v>
+        <v>0.000316</v>
       </c>
       <c r="F185">
-        <v>0.549395</v>
+        <v>-0.216237</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>338</v>
+        <v>3894</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
       </c>
       <c r="C186">
-        <v>3E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="D186">
-        <v>7.9E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="F186">
-        <v>-1.621031</v>
+        <v>-4.635381</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>1</v>
+        <v>2770</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
       </c>
       <c r="C187">
-        <v>4.5E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D187">
-        <v>2.7E-05</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F187">
-        <v>0.407731</v>
+        <v>0.12669</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>174</v>
+        <v>2594</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
       </c>
       <c r="C188">
-        <v>8.500000000000001E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D188">
-        <v>4.8E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F188">
-        <v>0.427719</v>
+        <v>0.415375</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>283</v>
+        <v>3473</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>0.000306</v>
+        <v>0.00178</v>
       </c>
       <c r="D189">
-        <v>0.000124</v>
+        <v>0.001933</v>
       </c>
       <c r="F189">
-        <v>0.59417</v>
+        <v>-0.08615200000000001</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>1609</v>
+        <v>2730</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>0.000224</v>
+        <v>0.01</v>
       </c>
       <c r="D190">
-        <v>0.000347</v>
+        <v>0.008114</v>
       </c>
       <c r="F190">
-        <v>-0.545814</v>
+        <v>0.188593</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>1395</v>
+        <v>2434</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
       </c>
       <c r="C191">
-        <v>1.1E-05</v>
+        <v>0.002101</v>
       </c>
       <c r="D191">
-        <v>3.4E-05</v>
+        <v>0.002705</v>
       </c>
       <c r="F191">
-        <v>-2.049406</v>
+        <v>-0.287397</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>343</v>
+        <v>2682</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192">
-        <v>0.000172</v>
+        <v>0.001436</v>
       </c>
       <c r="D192">
-        <v>0.000467</v>
+        <v>0.0009909999999999999</v>
       </c>
       <c r="F192">
-        <v>-1.713555</v>
+        <v>0.310074</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>869</v>
+        <v>4358</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>0.000712</v>
+        <v>0.000628</v>
       </c>
       <c r="D193">
-        <v>0.000894</v>
+        <v>0.00051</v>
       </c>
       <c r="F193">
-        <v>-0.255664</v>
+        <v>0.188145</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>1743</v>
+        <v>4206</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>0.000749</v>
+        <v>0.000162</v>
       </c>
       <c r="D194">
-        <v>0.000619</v>
+        <v>0.000547</v>
       </c>
       <c r="F194">
-        <v>0.174064</v>
+        <v>-2.384031</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>1810</v>
+        <v>3746</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195">
-        <v>4.8E-05</v>
+        <v>0.000177</v>
       </c>
       <c r="D195">
-        <v>6.4E-05</v>
+        <v>0.000138</v>
       </c>
       <c r="F195">
-        <v>-0.345027</v>
+        <v>0.219451</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>19</v>
+        <v>3902</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
       </c>
       <c r="C196">
-        <v>0.000603</v>
+        <v>9E-06</v>
       </c>
       <c r="D196">
-        <v>0.000456</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F196">
-        <v>0.243161</v>
+        <v>-2.439772</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>1167</v>
+        <v>4026</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>0.00013</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="D197">
-        <v>8.3E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F197">
-        <v>0.360193</v>
+        <v>0.692595</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>1193</v>
+        <v>3835</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
       </c>
       <c r="C198">
-        <v>1.5E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="D198">
-        <v>5.9E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="F198">
-        <v>-2.829085</v>
+        <v>0.024554</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>712</v>
+        <v>3853</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
       </c>
       <c r="C199">
-        <v>0.000105</v>
+        <v>2.6E-05</v>
       </c>
       <c r="D199">
-        <v>8.500000000000001E-05</v>
+        <v>4.8E-05</v>
       </c>
       <c r="F199">
-        <v>0.194192</v>
+        <v>-0.845368</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>970</v>
+        <v>2108</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
       </c>
       <c r="C200">
-        <v>3.1E-05</v>
+        <v>0.000563</v>
       </c>
       <c r="D200">
-        <v>3E-05</v>
+        <v>0.00022</v>
       </c>
       <c r="F200">
-        <v>0.034896</v>
+        <v>0.609818</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>1165</v>
+        <v>2349</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
       </c>
       <c r="C201">
-        <v>0.000226</v>
+        <v>0.00049</v>
       </c>
       <c r="D201">
-        <v>0.000121</v>
+        <v>0.000335</v>
       </c>
       <c r="F201">
-        <v>0.465194</v>
+        <v>0.316822</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>351</v>
+        <v>4335</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>0.000891</v>
+        <v>0.000651</v>
       </c>
       <c r="D202">
-        <v>0.000859</v>
+        <v>0.000546</v>
       </c>
       <c r="F202">
-        <v>0.036028</v>
+        <v>0.160731</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>320</v>
+        <v>3275</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
       </c>
       <c r="C203">
-        <v>0.00017</v>
+        <v>4.5E-05</v>
       </c>
       <c r="D203">
-        <v>0.000335</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F203">
-        <v>-0.974485</v>
+        <v>-1.204166</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>914</v>
+        <v>2044</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>0.0053</v>
+        <v>0.00041</v>
       </c>
       <c r="D204">
-        <v>0.004794</v>
+        <v>0.000363</v>
       </c>
       <c r="F204">
-        <v>0.095445</v>
+        <v>0.113607</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>1534</v>
+        <v>1117</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>2E-06</v>
+        <v>1.2E-05</v>
       </c>
       <c r="D205">
-        <v>1.2E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F205">
-        <v>-5.538066</v>
+        <v>-0.923346</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>367</v>
+        <v>3756</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
       </c>
       <c r="C206">
-        <v>0.000557</v>
+        <v>7.2E-05</v>
       </c>
       <c r="D206">
-        <v>0.000456</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F206">
-        <v>0.180935</v>
+        <v>0.781436</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>612</v>
+        <v>2973</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>0.00018</v>
+        <v>0.004818</v>
       </c>
       <c r="D207">
-        <v>0.000144</v>
+        <v>0.005983</v>
       </c>
       <c r="F207">
-        <v>0.201495</v>
+        <v>-0.241698</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>1709</v>
+        <v>2492</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
       <c r="C208">
-        <v>2.3E-05</v>
+        <v>0.000443</v>
       </c>
       <c r="D208">
-        <v>0.000149</v>
+        <v>0.000188</v>
       </c>
       <c r="F208">
-        <v>-5.36722</v>
+        <v>0.575781</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>1163</v>
+        <v>2364</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
       </c>
       <c r="C209">
-        <v>9.8E-05</v>
+        <v>0.001787</v>
       </c>
       <c r="D209">
-        <v>4.6E-05</v>
+        <v>0.002445</v>
       </c>
       <c r="F209">
-        <v>0.527551</v>
+        <v>-0.368297</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>179</v>
+        <v>2182</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
       </c>
       <c r="C210">
-        <v>0.001173</v>
+        <v>0.000743</v>
       </c>
       <c r="D210">
-        <v>0.002522</v>
+        <v>0.001193</v>
       </c>
       <c r="F210">
-        <v>-1.149877</v>
+        <v>-0.605961</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>1776</v>
+        <v>4215</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
       </c>
       <c r="C211">
-        <v>0.000103</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D211">
-        <v>0.000172</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F211">
-        <v>-0.672249</v>
+        <v>-0.979881</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>365</v>
+        <v>2833</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
       </c>
       <c r="C212">
-        <v>2.3E-05</v>
+        <v>0.000174</v>
       </c>
       <c r="D212">
-        <v>1.7E-05</v>
+        <v>0.000139</v>
       </c>
       <c r="F212">
-        <v>0.268583</v>
+        <v>0.201998</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>1235</v>
+        <v>3689</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
       </c>
       <c r="C213">
-        <v>5E-06</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D213">
-        <v>4E-06</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F213">
-        <v>0.183604</v>
+        <v>-0.375329</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>960</v>
+        <v>3929</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>0.000119</v>
+        <v>1E-06</v>
       </c>
       <c r="D214">
-        <v>0.000106</v>
+        <v>4E-06</v>
       </c>
       <c r="F214">
-        <v>0.105153</v>
+        <v>-1.687066</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>25</v>
+        <v>3161</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
       </c>
       <c r="C215">
-        <v>6E-06</v>
+        <v>0.000501</v>
       </c>
       <c r="D215">
-        <v>3E-06</v>
+        <v>0.000579</v>
       </c>
       <c r="F215">
-        <v>0.410502</v>
+        <v>-0.156486</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>1273</v>
+        <v>3570</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
       </c>
       <c r="C216">
-        <v>0.000239</v>
+        <v>3E-06</v>
       </c>
       <c r="D216">
-        <v>0.000331</v>
+        <v>3E-06</v>
       </c>
       <c r="F216">
-        <v>-0.383719</v>
+        <v>0.102083</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>1185</v>
+        <v>3346</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217">
-        <v>5.7E-05</v>
+        <v>0.000369</v>
       </c>
       <c r="D217">
-        <v>3.3E-05</v>
+        <v>0.000139</v>
       </c>
       <c r="F217">
-        <v>0.420504</v>
+        <v>0.622871</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>1294</v>
+        <v>4104</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
       </c>
       <c r="C218">
-        <v>7E-06</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D218">
-        <v>1.7E-05</v>
+        <v>0.000104</v>
       </c>
       <c r="F218">
-        <v>-1.373146</v>
+        <v>-4.021327</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>1438</v>
+        <v>3814</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
       </c>
       <c r="C219">
-        <v>2E-06</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D219">
-        <v>1.7E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F219">
-        <v>-6.09884</v>
+        <v>0.190127</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>396</v>
+        <v>3461</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
       </c>
       <c r="C220">
-        <v>0.000464</v>
+        <v>0.00381</v>
       </c>
       <c r="D220">
-        <v>0.000598</v>
+        <v>0.004083</v>
       </c>
       <c r="F220">
-        <v>-0.288481</v>
+        <v>-0.071711</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>886</v>
+        <v>1206</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
       </c>
       <c r="C221">
-        <v>0.00991</v>
+        <v>0.000403</v>
       </c>
       <c r="D221">
-        <v>0.013582</v>
+        <v>0.000392</v>
       </c>
       <c r="F221">
-        <v>-0.37054</v>
+        <v>0.027812</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>780</v>
+        <v>4057</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
       </c>
       <c r="C222">
-        <v>0.000117</v>
+        <v>0.000113</v>
       </c>
       <c r="D222">
-        <v>0.000115</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F222">
-        <v>0.012456</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>1164</v>
+        <v>4119</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
       </c>
       <c r="C223">
-        <v>6.8E-05</v>
+        <v>1E-06</v>
       </c>
       <c r="D223">
-        <v>3.7E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="F223">
-        <v>0.461471</v>
+        <v>-4.019648</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>79</v>
+        <v>4195</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
       </c>
       <c r="C224">
-        <v>0.002404</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D224">
-        <v>0.001126</v>
+        <v>0.000516</v>
       </c>
       <c r="F224">
-        <v>0.5317</v>
+        <v>-18.427559</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>1500</v>
+        <v>2584</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
       </c>
       <c r="C225">
-        <v>6E-06</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D225">
-        <v>0.000128</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F225">
-        <v>-19.108536</v>
+        <v>0.233288</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>1462</v>
+        <v>2591</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
       </c>
       <c r="C226">
         <v>8E-06</v>
       </c>
       <c r="D226">
-        <v>1.8E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F226">
-        <v>-1.297302</v>
+        <v>0.010317</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>920</v>
+        <v>3708</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
       </c>
       <c r="C227">
-        <v>0.00474</v>
+        <v>0.000111</v>
       </c>
       <c r="D227">
-        <v>0.004274</v>
+        <v>5.9E-05</v>
       </c>
       <c r="F227">
-        <v>0.098246</v>
+        <v>0.472803</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>707</v>
+        <v>2330</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
       </c>
       <c r="C228">
-        <v>0.0009</v>
+        <v>0.003661</v>
       </c>
       <c r="D228">
-        <v>0.000893</v>
+        <v>0.005685</v>
       </c>
       <c r="F228">
-        <v>0.00734</v>
+        <v>-0.552768</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>1408</v>
+        <v>3281</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
       </c>
       <c r="C229">
-        <v>0.000478</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D229">
-        <v>0.000102</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F229">
-        <v>0.78628</v>
+        <v>-1.191636</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>726</v>
+        <v>3255</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
       </c>
       <c r="C230">
-        <v>0.001139</v>
+        <v>0.002335</v>
       </c>
       <c r="D230">
-        <v>0.001665</v>
+        <v>0.001256</v>
       </c>
       <c r="F230">
-        <v>-0.462074</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>442</v>
+        <v>1225</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
       </c>
       <c r="C231">
-        <v>6.3E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="D231">
-        <v>6E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F231">
-        <v>0.048225</v>
+        <v>-0.299967</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>730</v>
+        <v>2397</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
       </c>
       <c r="C232">
-        <v>2.2E-05</v>
+        <v>0.000357</v>
       </c>
       <c r="D232">
-        <v>8.3E-05</v>
+        <v>0.000154</v>
       </c>
       <c r="F232">
-        <v>-2.722223</v>
+        <v>0.5687950000000001</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>1499</v>
+        <v>2651</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
       </c>
       <c r="C233">
-        <v>1E-06</v>
+        <v>0.001282</v>
       </c>
       <c r="D233">
-        <v>4.2E-05</v>
+        <v>0.001334</v>
       </c>
       <c r="F233">
-        <v>-34.843653</v>
+        <v>-0.040788</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>1656</v>
+        <v>4218</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
       </c>
       <c r="C234">
-        <v>0.000547</v>
+        <v>1.2E-05</v>
       </c>
       <c r="D234">
-        <v>0.000637</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F234">
-        <v>-0.163018</v>
+        <v>-0.102408</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>1483</v>
+        <v>2711</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
       </c>
       <c r="C235">
-        <v>1E-06</v>
+        <v>0.000295</v>
       </c>
       <c r="D235">
-        <v>4.3E-05</v>
+        <v>0.000188</v>
       </c>
       <c r="F235">
-        <v>-39.215711</v>
+        <v>0.362986</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>973</v>
+        <v>3262</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
       </c>
       <c r="C236">
-        <v>7.499999999999999E-05</v>
+        <v>0.000386</v>
       </c>
       <c r="D236">
-        <v>9.8E-05</v>
+        <v>0.000403</v>
       </c>
       <c r="F236">
-        <v>-0.301109</v>
+        <v>-0.044505</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>659</v>
+        <v>4381</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
       </c>
       <c r="C237">
-        <v>1E-05</v>
+        <v>0.000139</v>
       </c>
       <c r="D237">
-        <v>2.8E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="F237">
-        <v>-1.728464</v>
+        <v>0.06973500000000001</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>1295</v>
+        <v>2920</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>0.00054</v>
+        <v>0.001878</v>
       </c>
       <c r="D238">
-        <v>0.000318</v>
+        <v>0.001743</v>
       </c>
       <c r="F238">
-        <v>0.410906</v>
+        <v>0.07188</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>112</v>
+        <v>2775</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
       </c>
       <c r="C239">
-        <v>0.001695</v>
+        <v>0.00825</v>
       </c>
       <c r="D239">
-        <v>0.001711</v>
+        <v>0.008187</v>
       </c>
       <c r="F239">
-        <v>-0.009368</v>
+        <v>0.007591</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>1275</v>
+        <v>1124</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
       </c>
       <c r="C240">
-        <v>0.00104</v>
+        <v>0.000467</v>
       </c>
       <c r="D240">
-        <v>1.3E-05</v>
+        <v>0.000403</v>
       </c>
       <c r="F240">
-        <v>0.987335</v>
+        <v>0.13738</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>679</v>
+        <v>3649</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
       </c>
       <c r="C241">
-        <v>0.001109</v>
+        <v>2E-05</v>
       </c>
       <c r="D241">
-        <v>0.000664</v>
+        <v>8.1E-05</v>
       </c>
       <c r="F241">
-        <v>0.401292</v>
+        <v>-3.074912</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>259</v>
+        <v>3922</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
       </c>
       <c r="C242">
-        <v>1.6E-05</v>
+        <v>1E-06</v>
       </c>
       <c r="D242">
-        <v>5.6E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="F242">
-        <v>-2.527296</v>
+        <v>-1.419459</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>1288</v>
+        <v>4123</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
       <c r="C243">
-        <v>0.000597</v>
+        <v>2E-06</v>
       </c>
       <c r="D243">
-        <v>0.000672</v>
+        <v>2.1E-05</v>
       </c>
       <c r="F243">
-        <v>-0.125416</v>
+        <v>-7.954459</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>297</v>
+        <v>2612</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
       </c>
       <c r="C244">
-        <v>0.000136</v>
+        <v>6.2E-05</v>
       </c>
       <c r="D244">
-        <v>0.000148</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F244">
-        <v>-0.08873399999999999</v>
+        <v>0.306231</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>122</v>
+        <v>2029</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
       </c>
       <c r="C245">
-        <v>9.1E-05</v>
+        <v>0.000376</v>
       </c>
       <c r="D245">
-        <v>0.000129</v>
+        <v>0.000303</v>
       </c>
       <c r="F245">
-        <v>-0.427078</v>
+        <v>0.193771</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>85</v>
+        <v>2386</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
       </c>
       <c r="C246">
-        <v>0.000705</v>
+        <v>0.001885</v>
       </c>
       <c r="D246">
-        <v>0.000669</v>
+        <v>0.002284</v>
       </c>
       <c r="F246">
-        <v>0.051391</v>
+        <v>-0.211449</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>635</v>
+        <v>3331</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
       </c>
       <c r="C247">
-        <v>0.000519</v>
+        <v>0.000102</v>
       </c>
       <c r="D247">
-        <v>0.000826</v>
+        <v>7.3E-05</v>
       </c>
       <c r="F247">
-        <v>-0.590309</v>
+        <v>0.280244</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>376</v>
+        <v>3677</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
       </c>
       <c r="C248">
-        <v>7.3E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D248">
-        <v>6E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="F248">
-        <v>0.178617</v>
+        <v>0.706226</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>242</v>
+        <v>2841</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
       </c>
       <c r="C249">
-        <v>3.8E-05</v>
+        <v>0.001803</v>
       </c>
       <c r="D249">
-        <v>9.6E-05</v>
+        <v>0.001544</v>
       </c>
       <c r="F249">
-        <v>-1.522312</v>
+        <v>0.143546</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>1055</v>
+        <v>2469</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6</v>
       </c>
       <c r="C250">
-        <v>1.9E-05</v>
+        <v>0.001239</v>
       </c>
       <c r="D250">
-        <v>1.1E-05</v>
+        <v>0.000496</v>
       </c>
       <c r="F250">
-        <v>0.419129</v>
+        <v>0.599793</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>555</v>
+        <v>2145</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
       </c>
       <c r="C251">
-        <v>0.000676</v>
+        <v>0.00037</v>
       </c>
       <c r="D251">
-        <v>0.000328</v>
+        <v>0.000443</v>
       </c>
       <c r="F251">
-        <v>0.514886</v>
+        <v>-0.198416</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>1750</v>
+        <v>2609</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
       </c>
       <c r="C252">
-        <v>0.00057</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D252">
-        <v>0.000764</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F252">
-        <v>-0.33973</v>
+        <v>0.347231</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>1188</v>
+        <v>2644</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
       </c>
       <c r="C253">
-        <v>1.1E-05</v>
+        <v>0.000406</v>
       </c>
       <c r="D253">
-        <v>1.2E-05</v>
+        <v>0.000476</v>
       </c>
       <c r="F253">
-        <v>-0.156191</v>
+        <v>-0.172924</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>520</v>
+        <v>2356</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
       </c>
       <c r="C254">
-        <v>0.000205</v>
+        <v>9E-06</v>
       </c>
       <c r="D254">
-        <v>4.8E-05</v>
+        <v>0.000215</v>
       </c>
       <c r="F254">
-        <v>0.766358</v>
+        <v>-22.861939</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>1504</v>
+        <v>3771</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
       </c>
       <c r="C255">
-        <v>5.4E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="D255">
-        <v>0.000129</v>
+        <v>2.1E-05</v>
       </c>
       <c r="F255">
-        <v>-1.374049</v>
+        <v>0.372339</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>1611</v>
+        <v>3132</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
       </c>
       <c r="C256">
-        <v>0.000161</v>
+        <v>6.1E-05</v>
       </c>
       <c r="D256">
-        <v>0.0002</v>
+        <v>0.00305</v>
       </c>
       <c r="F256">
-        <v>-0.242517</v>
+        <v>-49.077173</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>1045</v>
+        <v>3165</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
       </c>
       <c r="C257">
-        <v>5.6E-05</v>
+        <v>8.1E-05</v>
       </c>
       <c r="D257">
-        <v>1.8E-05</v>
+        <v>0.000146</v>
       </c>
       <c r="F257">
-        <v>0.677132</v>
+        <v>-0.813364</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>599</v>
+        <v>3616</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
       </c>
       <c r="C258">
-        <v>0.00533</v>
+        <v>2E-06</v>
       </c>
       <c r="D258">
-        <v>0.00442</v>
+        <v>3E-06</v>
       </c>
       <c r="F258">
-        <v>0.17076</v>
+        <v>-0.554778</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>1628</v>
+        <v>2196</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
       </c>
       <c r="C259">
-        <v>0.000121</v>
+        <v>0.00035</v>
       </c>
       <c r="D259">
-        <v>6.499999999999999E-05</v>
+        <v>0.000315</v>
       </c>
       <c r="F259">
-        <v>0.464605</v>
+        <v>0.100153</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>662</v>
+        <v>1173</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
       </c>
       <c r="C260">
-        <v>1.6E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D260">
-        <v>4.6E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F260">
-        <v>-1.860807</v>
+        <v>0.363282</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>464</v>
+        <v>4277</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
       </c>
       <c r="C261">
-        <v>0.000189</v>
+        <v>0.000109</v>
       </c>
       <c r="D261">
-        <v>6.999999999999999E-05</v>
+        <v>0.000104</v>
       </c>
       <c r="F261">
-        <v>0.63209</v>
+        <v>0.044605</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>1614</v>
+        <v>2213</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
       </c>
       <c r="C262">
-        <v>0.000139</v>
+        <v>0.001535</v>
       </c>
       <c r="D262">
-        <v>0.000116</v>
+        <v>0.001233</v>
       </c>
       <c r="F262">
-        <v>0.163522</v>
+        <v>0.196432</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>77</v>
+        <v>2381</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
       </c>
       <c r="C263">
-        <v>0.005065</v>
+        <v>0.000109</v>
       </c>
       <c r="D263">
-        <v>0.004721</v>
+        <v>0.000353</v>
       </c>
       <c r="F263">
-        <v>0.067977</v>
+        <v>-2.242563</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>457</v>
+        <v>3190</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
       </c>
       <c r="C264">
-        <v>5.2E-05</v>
+        <v>0.001428</v>
       </c>
       <c r="D264">
-        <v>5.1E-05</v>
+        <v>0.001286</v>
       </c>
       <c r="F264">
-        <v>0.02605</v>
+        <v>0.099356</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>1467</v>
+        <v>2051</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
       </c>
       <c r="C265">
-        <v>5E-06</v>
+        <v>0.000242</v>
       </c>
       <c r="D265">
-        <v>1.4E-05</v>
+        <v>0.000197</v>
       </c>
       <c r="F265">
-        <v>-1.792975</v>
+        <v>0.18539</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>407</v>
+        <v>3763</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
       </c>
       <c r="C266">
-        <v>0.001959</v>
+        <v>9.8E-05</v>
       </c>
       <c r="D266">
-        <v>0.002341</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F266">
-        <v>-0.195459</v>
+        <v>0.606305</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>516</v>
+        <v>2636</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
       </c>
       <c r="C267">
-        <v>0.000149</v>
+        <v>0.000708</v>
       </c>
       <c r="D267">
-        <v>4.5E-05</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="F267">
-        <v>0.697253</v>
+        <v>-0.407916</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>1643</v>
+        <v>2228</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
       </c>
       <c r="C268">
-        <v>0.000588</v>
+        <v>0.0033</v>
       </c>
       <c r="D268">
-        <v>0.000405</v>
+        <v>0.003239</v>
       </c>
       <c r="F268">
-        <v>0.310318</v>
+        <v>0.018363</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>650</v>
+        <v>2828</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
       </c>
       <c r="C269">
-        <v>1.1E-05</v>
+        <v>0.00533</v>
       </c>
       <c r="D269">
-        <v>3.5E-05</v>
+        <v>0.004959</v>
       </c>
       <c r="F269">
-        <v>-2.282675</v>
+        <v>0.069633</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>1567</v>
+        <v>3718</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
       </c>
       <c r="C270">
-        <v>9.500000000000001E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D270">
-        <v>6.1E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F270">
-        <v>0.353874</v>
+        <v>-0.395718</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>286</v>
+        <v>2217</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
       </c>
       <c r="C271">
-        <v>0.003023</v>
+        <v>0.003137</v>
       </c>
       <c r="D271">
-        <v>0.001922</v>
+        <v>0.002702</v>
       </c>
       <c r="F271">
-        <v>0.364097</v>
+        <v>0.13853</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>1245</v>
+        <v>3917</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
       </c>
       <c r="C272">
-        <v>3.1E-05</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D272">
-        <v>2.5E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F272">
-        <v>0.203833</v>
+        <v>0.657624</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>1588</v>
+        <v>4303</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
       </c>
       <c r="C273">
-        <v>5E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D273">
-        <v>4.4E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F273">
-        <v>0.12459</v>
+        <v>-2.871173</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>102</v>
+        <v>1143</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
       </c>
       <c r="C274">
-        <v>0.0008</v>
+        <v>2E-05</v>
       </c>
       <c r="D274">
-        <v>0.001319</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F274">
-        <v>-0.648771</v>
+        <v>0.472555</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>35</v>
+        <v>3854</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
       </c>
       <c r="C275">
-        <v>0.00041</v>
+        <v>6.1E-05</v>
       </c>
       <c r="D275">
-        <v>0.000275</v>
+        <v>7.2E-05</v>
       </c>
       <c r="F275">
-        <v>0.329573</v>
+        <v>-0.169696</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>923</v>
+        <v>2431</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
       </c>
       <c r="C276">
-        <v>0.0053</v>
+        <v>0.000845</v>
       </c>
       <c r="D276">
-        <v>0.004973</v>
+        <v>0.001236</v>
       </c>
       <c r="F276">
-        <v>0.061705</v>
+        <v>-0.462941</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>483</v>
+        <v>1050</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
       </c>
       <c r="C277">
-        <v>0.000205</v>
+        <v>0.003527</v>
       </c>
       <c r="D277">
-        <v>5.6E-05</v>
+        <v>0.003601</v>
       </c>
       <c r="F277">
-        <v>0.726969</v>
+        <v>-0.020986</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>193</v>
+        <v>3925</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
       </c>
       <c r="C278">
-        <v>0.014429</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D278">
-        <v>0.010907</v>
+        <v>8E-06</v>
       </c>
       <c r="F278">
-        <v>0.244086</v>
+        <v>0.326886</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>1377</v>
+        <v>2427</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
       </c>
       <c r="C279">
-        <v>0.000687</v>
+        <v>0.00012</v>
       </c>
       <c r="D279">
-        <v>7.1E-05</v>
+        <v>0.0008229999999999999</v>
       </c>
       <c r="F279">
-        <v>0.896985</v>
+        <v>-5.861657</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>1399</v>
+        <v>2497</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
       </c>
       <c r="C280">
-        <v>6.7E-05</v>
+        <v>0.002882</v>
       </c>
       <c r="D280">
-        <v>3.4E-05</v>
+        <v>0.003871</v>
       </c>
       <c r="F280">
-        <v>0.495935</v>
+        <v>-0.343247</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>597</v>
+        <v>2491</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
       </c>
       <c r="C281">
-        <v>0.00176</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D281">
-        <v>0.00143</v>
+        <v>2E-05</v>
       </c>
       <c r="F281">
-        <v>0.187616</v>
+        <v>0.592961</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>171</v>
+        <v>3913</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
       </c>
       <c r="C282">
-        <v>0.000316</v>
+        <v>2E-06</v>
       </c>
       <c r="D282">
-        <v>0.001048</v>
+        <v>0.000114</v>
       </c>
       <c r="F282">
-        <v>-2.316474</v>
+        <v>-58.492699</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>1391</v>
+        <v>4090</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
       </c>
       <c r="C283">
-        <v>4E-05</v>
+        <v>8.8E-05</v>
       </c>
       <c r="D283">
-        <v>1.1E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F283">
-        <v>0.717458</v>
+        <v>0.802477</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>508</v>
+        <v>2509</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
       </c>
       <c r="C284">
-        <v>0.000172</v>
+        <v>0.00028</v>
       </c>
       <c r="D284">
-        <v>0.000105</v>
+        <v>0.000259</v>
       </c>
       <c r="F284">
-        <v>0.387386</v>
+        <v>0.077351</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>1047</v>
+        <v>3295</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C285">
-        <v>2E-06</v>
+        <v>1E-05</v>
       </c>
       <c r="D285">
-        <v>1.3E-05</v>
+        <v>1E-06</v>
       </c>
       <c r="F285">
-        <v>-4.672613</v>
+        <v>0.852288</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>783</v>
+        <v>3937</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>0.001965</v>
+        <v>0.000103</v>
       </c>
       <c r="D286">
-        <v>0.000363</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F286">
-        <v>0.81512</v>
+        <v>0.776399</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>241</v>
+        <v>3795</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
       </c>
       <c r="C287">
-        <v>0.00058</v>
+        <v>8E-06</v>
       </c>
       <c r="D287">
-        <v>0.000473</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F287">
-        <v>0.185176</v>
+        <v>-0.96479</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>1482</v>
+        <v>2676</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
       </c>
       <c r="C288">
-        <v>0.000174</v>
+        <v>3.8E-05</v>
       </c>
       <c r="D288">
-        <v>7.1E-05</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F288">
-        <v>0.593426</v>
+        <v>-0.243281</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>621</v>
+        <v>3420</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
       </c>
       <c r="C289">
-        <v>0.000406</v>
+        <v>0.00328</v>
       </c>
       <c r="D289">
-        <v>0.034644</v>
+        <v>0.003193</v>
       </c>
       <c r="F289">
-        <v>-84.330872</v>
+        <v>0.026462</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>950</v>
+        <v>2772</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
       </c>
       <c r="C290">
-        <v>0.000226</v>
+        <v>0.001879</v>
       </c>
       <c r="D290">
-        <v>0.00016</v>
+        <v>0.001351</v>
       </c>
       <c r="F290">
-        <v>0.290974</v>
+        <v>0.281158</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>354</v>
+        <v>4307</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
       </c>
       <c r="C291">
-        <v>0.00025</v>
+        <v>0.000224</v>
       </c>
       <c r="D291">
-        <v>0.001038</v>
+        <v>0.000249</v>
       </c>
       <c r="F291">
-        <v>-3.153032</v>
+        <v>-0.111597</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>1440</v>
+        <v>2398</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
       </c>
       <c r="C292">
-        <v>0.000628</v>
+        <v>0.000353</v>
       </c>
       <c r="D292">
-        <v>0.00046</v>
+        <v>0.000158</v>
       </c>
       <c r="F292">
-        <v>0.267156</v>
+        <v>0.552997</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>1362</v>
+        <v>3243</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
       </c>
       <c r="C293">
-        <v>8E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="D293">
-        <v>8E-06</v>
+        <v>4E-05</v>
       </c>
       <c r="F293">
-        <v>-0.00717</v>
+        <v>-12.149757</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>1056</v>
+        <v>3371</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
       </c>
       <c r="C294">
-        <v>5.9E-05</v>
+        <v>0.000144</v>
       </c>
       <c r="D294">
-        <v>8.1E-05</v>
+        <v>0.000128</v>
       </c>
       <c r="F294">
-        <v>-0.371516</v>
+        <v>0.110512</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>817</v>
+        <v>3558</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
       </c>
       <c r="C295">
-        <v>7E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="D295">
-        <v>3.8E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="F295">
-        <v>-4.180977</v>
+        <v>-0.91415</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>1191</v>
+        <v>3226</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
       </c>
       <c r="C296">
-        <v>1.2E-05</v>
+        <v>0.000125</v>
       </c>
       <c r="D296">
-        <v>4.4E-05</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F296">
-        <v>-2.60529</v>
+        <v>0.40196</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>1678</v>
+        <v>2649</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
       </c>
       <c r="C297">
-        <v>0.000722</v>
+        <v>0.000328</v>
       </c>
       <c r="D297">
-        <v>0.000861</v>
+        <v>0.000596</v>
       </c>
       <c r="F297">
-        <v>-0.191796</v>
+        <v>-0.813717</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>1565</v>
+        <v>2378</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
       </c>
       <c r="C298">
-        <v>0.000119</v>
+        <v>0.002688</v>
       </c>
       <c r="D298">
-        <v>6.7E-05</v>
+        <v>0.002091</v>
       </c>
       <c r="F298">
-        <v>0.435488</v>
+        <v>0.222012</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>925</v>
+        <v>4229</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
       </c>
       <c r="C299">
-        <v>0.00178</v>
+        <v>7.8E-05</v>
       </c>
       <c r="D299">
-        <v>0.002038</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F299">
-        <v>-0.145115</v>
+        <v>-0.026216</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>741</v>
+        <v>3506</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
       </c>
       <c r="C300">
-        <v>0.000968</v>
+        <v>0.000535</v>
       </c>
       <c r="D300">
-        <v>0.000467</v>
+        <v>0.00029</v>
       </c>
       <c r="F300">
-        <v>0.517886</v>
+        <v>0.458722</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>1010</v>
+        <v>4102</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
       </c>
       <c r="C301">
-        <v>2E-06</v>
+        <v>0.000303</v>
       </c>
       <c r="D301">
-        <v>5E-06</v>
+        <v>0.000516</v>
       </c>
       <c r="F301">
-        <v>-1.849169</v>
+        <v>-0.702415</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>1211</v>
+        <v>3392</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
       </c>
       <c r="C302">
-        <v>2.8E-05</v>
+        <v>0.003414</v>
       </c>
       <c r="D302">
-        <v>3.3E-05</v>
+        <v>0.00341</v>
       </c>
       <c r="F302">
-        <v>-0.191791</v>
+        <v>0.001093</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>586</v>
+        <v>3774</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
       </c>
       <c r="C303">
-        <v>0.000165</v>
+        <v>0.000145</v>
       </c>
       <c r="D303">
-        <v>9.8E-05</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F303">
-        <v>0.403327</v>
+        <v>0.419818</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>1366</v>
+        <v>2989</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
       </c>
       <c r="C304">
-        <v>1.6E-05</v>
+        <v>0.002314</v>
       </c>
       <c r="D304">
-        <v>9E-06</v>
+        <v>0.002076</v>
       </c>
       <c r="F304">
-        <v>0.439722</v>
+        <v>0.102861</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>1707</v>
+        <v>2371</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
       </c>
       <c r="C305">
-        <v>6.4E-05</v>
+        <v>0.000489</v>
       </c>
       <c r="D305">
-        <v>8.4E-05</v>
+        <v>0.000753</v>
       </c>
       <c r="F305">
-        <v>-0.311448</v>
+        <v>-0.540082</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>664</v>
+        <v>3720</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
       </c>
       <c r="C306">
-        <v>0.002114</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D306">
-        <v>0.002066</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F306">
-        <v>0.022642</v>
+        <v>-0.216428</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>280</v>
+        <v>2826</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
       </c>
       <c r="C307">
-        <v>1.5E-05</v>
+        <v>0.00176</v>
       </c>
       <c r="D307">
-        <v>8.500000000000001E-05</v>
+        <v>0.001133</v>
       </c>
       <c r="F307">
-        <v>-4.66712</v>
+        <v>0.356072</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>1518</v>
+        <v>1012</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
       </c>
       <c r="C308">
-        <v>7E-06</v>
+        <v>0.000387</v>
       </c>
       <c r="D308">
-        <v>0.00046</v>
+        <v>0.00052</v>
       </c>
       <c r="F308">
-        <v>-66.49250499999999</v>
+        <v>-0.343608</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>1356</v>
+        <v>3322</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
       </c>
       <c r="C309">
-        <v>0.000117</v>
+        <v>2.4E-05</v>
       </c>
       <c r="D309">
-        <v>4.9E-05</v>
+        <v>4.8E-05</v>
       </c>
       <c r="F309">
-        <v>0.578138</v>
+        <v>-1.006055</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310">
-        <v>1692</v>
+        <v>3939</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
       </c>
       <c r="C310">
-        <v>0.000458</v>
+        <v>6E-05</v>
       </c>
       <c r="D310">
-        <v>0.000462</v>
+        <v>2E-05</v>
       </c>
       <c r="F310">
-        <v>-0.009193</v>
+        <v>0.670195</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311">
-        <v>8</v>
+        <v>1251</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
       </c>
       <c r="C311">
-        <v>4E-06</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D311">
-        <v>2E-06</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F311">
-        <v>0.5586410000000001</v>
+        <v>-0.413402</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312">
-        <v>528</v>
+        <v>4103</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
       </c>
       <c r="C312">
-        <v>0.001803</v>
+        <v>5E-06</v>
       </c>
       <c r="D312">
-        <v>0.001823</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F312">
-        <v>-0.0111</v>
+        <v>-2.773963</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313">
-        <v>951</v>
+        <v>3712</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
       </c>
       <c r="C313">
-        <v>8.1E-05</v>
+        <v>5.5E-05</v>
       </c>
       <c r="D313">
-        <v>9.3E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F313">
-        <v>-0.147422</v>
+        <v>0.7454499999999999</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314">
-        <v>598</v>
+        <v>2715</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
       </c>
       <c r="C314">
-        <v>0.003082</v>
+        <v>0.001413</v>
       </c>
       <c r="D314">
-        <v>0.002303</v>
+        <v>0.000925</v>
       </c>
       <c r="F314">
-        <v>0.252751</v>
+        <v>0.345305</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315">
-        <v>1539</v>
+        <v>1095</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
       </c>
       <c r="C315">
-        <v>0.000114</v>
+        <v>7.7E-05</v>
       </c>
       <c r="D315">
-        <v>8.4E-05</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="F315">
-        <v>0.263472</v>
+        <v>0.163461</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316">
-        <v>1635</v>
+        <v>1268</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
       </c>
       <c r="C316">
-        <v>0.000619</v>
+        <v>1.8E-05</v>
       </c>
       <c r="D316">
-        <v>0.000559</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F316">
-        <v>0.096834</v>
+        <v>-0.268233</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317">
-        <v>733</v>
+        <v>4375</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
       </c>
       <c r="C317">
-        <v>0.000664</v>
+        <v>0.000651</v>
       </c>
       <c r="D317">
-        <v>0.00048</v>
+        <v>0.000809</v>
       </c>
       <c r="F317">
-        <v>0.276911</v>
+        <v>-0.243849</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318">
-        <v>408</v>
+        <v>4308</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
       </c>
       <c r="C318">
-        <v>0.001163</v>
+        <v>0.000105</v>
       </c>
       <c r="D318">
-        <v>0.000894</v>
+        <v>0.000186</v>
       </c>
       <c r="F318">
-        <v>0.231408</v>
+        <v>-0.7689319999999999</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319">
-        <v>881</v>
+        <v>2327</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
       </c>
       <c r="C319">
-        <v>0.00147</v>
+        <v>0.001173</v>
       </c>
       <c r="D319">
-        <v>0.001362</v>
+        <v>0.002152</v>
       </c>
       <c r="F319">
-        <v>0.073745</v>
+        <v>-0.834364</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320">
-        <v>1112</v>
+        <v>2614</v>
+      </c>
+      <c r="B320" t="s">
+        <v>6</v>
       </c>
       <c r="C320">
-        <v>5.5E-05</v>
+        <v>0.001464</v>
       </c>
       <c r="D320">
-        <v>2.6E-05</v>
+        <v>0.000947</v>
       </c>
       <c r="F320">
-        <v>0.527166</v>
+        <v>0.353021</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321">
-        <v>329</v>
+        <v>3639</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
       </c>
       <c r="C321">
-        <v>0.000157</v>
+        <v>3E-06</v>
       </c>
       <c r="D321">
-        <v>0.000162</v>
+        <v>5E-06</v>
       </c>
       <c r="F321">
-        <v>-0.031751</v>
+        <v>-0.704091</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322">
-        <v>1654</v>
+        <v>3297</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
       </c>
       <c r="C322">
-        <v>0.00031</v>
+        <v>0.000796</v>
       </c>
       <c r="D322">
-        <v>0.000392</v>
+        <v>0.000436</v>
       </c>
       <c r="F322">
-        <v>-0.26527</v>
+        <v>0.452297</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323">
-        <v>1222</v>
+        <v>2926</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
       </c>
       <c r="C323">
-        <v>5E-05</v>
+        <v>0.000121</v>
       </c>
       <c r="D323">
-        <v>3.5E-05</v>
+        <v>6.2E-05</v>
       </c>
       <c r="F323">
-        <v>0.297621</v>
+        <v>0.485282</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324">
-        <v>1413</v>
+        <v>3765</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
       </c>
       <c r="C324">
-        <v>3.4E-05</v>
+        <v>0.000226</v>
       </c>
       <c r="D324">
-        <v>1.7E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="F324">
-        <v>0.505576</v>
+        <v>0.555682</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325">
-        <v>404</v>
+        <v>2403</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
       </c>
       <c r="C325">
-        <v>0.000627</v>
+        <v>0.005532</v>
       </c>
       <c r="D325">
-        <v>0.000572</v>
+        <v>0.003857</v>
       </c>
       <c r="F325">
-        <v>0.08813500000000001</v>
+        <v>0.302775</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326">
-        <v>1327</v>
+        <v>2834</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
       </c>
       <c r="C326">
-        <v>1E-05</v>
+        <v>0.000172</v>
       </c>
       <c r="D326">
-        <v>4E-06</v>
+        <v>0.000159</v>
       </c>
       <c r="F326">
-        <v>0.552202</v>
+        <v>0.073307</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327">
-        <v>1272</v>
+        <v>4040</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
       </c>
       <c r="C327">
-        <v>0.000354</v>
+        <v>0.000967</v>
       </c>
       <c r="D327">
-        <v>0.000455</v>
+        <v>0.000277</v>
       </c>
       <c r="F327">
-        <v>-0.28434</v>
+        <v>0.713036</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328">
-        <v>1544</v>
+        <v>2691</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
       </c>
       <c r="C328">
-        <v>5E-05</v>
+        <v>8.4E-05</v>
       </c>
       <c r="D328">
-        <v>4.4E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F328">
-        <v>0.132577</v>
+        <v>0.482601</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329">
-        <v>285</v>
+        <v>2161</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
       </c>
       <c r="C329">
-        <v>0.001193</v>
+        <v>0.000211</v>
       </c>
       <c r="D329">
-        <v>0.0005240000000000001</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F329">
-        <v>0.5610309999999999</v>
+        <v>0.64324</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330">
-        <v>1282</v>
+        <v>2332</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
       </c>
       <c r="C330">
-        <v>0.00016</v>
+        <v>0.004426</v>
       </c>
       <c r="D330">
-        <v>0.000186</v>
+        <v>0.005544</v>
       </c>
       <c r="F330">
-        <v>-0.163864</v>
+        <v>-0.252574</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331">
-        <v>1405</v>
+        <v>2503</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
       </c>
       <c r="C331">
-        <v>2.9E-05</v>
+        <v>0.001718</v>
       </c>
       <c r="D331">
-        <v>3.2E-05</v>
+        <v>0.002301</v>
       </c>
       <c r="F331">
-        <v>-0.112461</v>
+        <v>-0.339397</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332">
-        <v>48</v>
+        <v>2697</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
       </c>
       <c r="C332">
-        <v>9.500000000000001E-05</v>
+        <v>0.000603</v>
       </c>
       <c r="D332">
-        <v>9.1E-05</v>
+        <v>0.000482</v>
       </c>
       <c r="F332">
-        <v>0.045755</v>
+        <v>0.20002</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333">
-        <v>931</v>
+        <v>3798</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
       </c>
       <c r="C333">
-        <v>0.000907</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D333">
-        <v>0.001047</v>
+        <v>1E-05</v>
       </c>
       <c r="F333">
-        <v>-0.154327</v>
+        <v>0.383003</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334">
-        <v>649</v>
+        <v>2053</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
       </c>
       <c r="C334">
-        <v>1.7E-05</v>
+        <v>0.00217</v>
       </c>
       <c r="D334">
-        <v>5.6E-05</v>
+        <v>0.001305</v>
       </c>
       <c r="F334">
-        <v>-2.30386</v>
+        <v>0.398492</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335">
-        <v>1286</v>
+        <v>2613</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
       </c>
       <c r="C335">
-        <v>0.000525</v>
+        <v>0.000842</v>
       </c>
       <c r="D335">
-        <v>0.000538</v>
+        <v>0.000522</v>
       </c>
       <c r="F335">
-        <v>-0.024911</v>
+        <v>0.380301</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336">
-        <v>1585</v>
+        <v>2413</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
       </c>
       <c r="C336">
-        <v>5E-05</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D336">
-        <v>6.600000000000001E-05</v>
+        <v>0.000118</v>
       </c>
       <c r="F336">
-        <v>-0.32056</v>
+        <v>-1.027025</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337">
-        <v>713</v>
+        <v>4003</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
       <c r="C337">
-        <v>0.00022</v>
+        <v>0.0006579999999999999</v>
       </c>
       <c r="D337">
-        <v>0.000391</v>
+        <v>0.000516</v>
       </c>
       <c r="F337">
-        <v>-0.775631</v>
+        <v>0.216673</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338">
-        <v>230</v>
+        <v>3947</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
       </c>
       <c r="C338">
-        <v>0.000252</v>
+        <v>9.2E-05</v>
       </c>
       <c r="D338">
-        <v>0.000432</v>
+        <v>0.00014</v>
       </c>
       <c r="F338">
-        <v>-0.714829</v>
+        <v>-0.52662</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339">
-        <v>1511</v>
+        <v>3731</v>
+      </c>
+      <c r="B339" t="s">
+        <v>6</v>
       </c>
       <c r="C339">
-        <v>2E-06</v>
+        <v>0.00012</v>
       </c>
       <c r="D339">
-        <v>5E-06</v>
+        <v>7.2E-05</v>
       </c>
       <c r="F339">
-        <v>-2.048726</v>
+        <v>0.39704</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340">
-        <v>1011</v>
+        <v>1176</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340">
-        <v>1E-06</v>
+        <v>0.000284</v>
       </c>
       <c r="D340">
-        <v>3E-06</v>
+        <v>0.000204</v>
       </c>
       <c r="F340">
-        <v>-1.530016</v>
+        <v>0.281442</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341">
-        <v>1497</v>
+        <v>4329</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
       </c>
       <c r="C341">
-        <v>2E-06</v>
+        <v>0.000381</v>
       </c>
       <c r="D341">
-        <v>1.6E-05</v>
+        <v>0.00059</v>
       </c>
       <c r="F341">
-        <v>-6.70144</v>
+        <v>-0.548091</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342">
-        <v>1767</v>
+        <v>2992</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
       </c>
       <c r="C342">
-        <v>0.000352</v>
+        <v>2E-06</v>
       </c>
       <c r="D342">
-        <v>0.000653</v>
+        <v>8E-06</v>
       </c>
       <c r="F342">
-        <v>-0.858362</v>
+        <v>-2.999576</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343">
-        <v>1303</v>
+        <v>1126</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
       </c>
       <c r="C343">
-        <v>0.000355</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D343">
-        <v>0.000403</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F343">
-        <v>-0.13662</v>
+        <v>0.068763</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344">
-        <v>921</v>
+        <v>3648</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
       </c>
       <c r="C344">
-        <v>0.0058</v>
+        <v>5.9E-05</v>
       </c>
       <c r="D344">
-        <v>0.005669</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F344">
-        <v>0.022523</v>
+        <v>0.451945</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345">
-        <v>310</v>
+        <v>2810</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
       </c>
       <c r="C345">
-        <v>0.000101</v>
+        <v>0.000589</v>
       </c>
       <c r="D345">
-        <v>5.1E-05</v>
+        <v>0.000536</v>
       </c>
       <c r="F345">
-        <v>0.492328</v>
+        <v>0.090338</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346">
-        <v>482</v>
+        <v>2122</v>
+      </c>
+      <c r="B346" t="s">
+        <v>6</v>
       </c>
       <c r="C346">
-        <v>0.001565</v>
+        <v>0.000123</v>
       </c>
       <c r="D346">
-        <v>0.000385</v>
+        <v>0.000116</v>
       </c>
       <c r="F346">
-        <v>0.753955</v>
+        <v>0.06256200000000001</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347">
-        <v>1308</v>
+        <v>2086</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
       </c>
       <c r="C347">
-        <v>0.000104</v>
+        <v>0.003614</v>
       </c>
       <c r="D347">
-        <v>7.1E-05</v>
+        <v>0.0036</v>
       </c>
       <c r="F347">
-        <v>0.319249</v>
+        <v>0.003806</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348">
-        <v>126</v>
+        <v>1055</v>
+      </c>
+      <c r="B348" t="s">
+        <v>6</v>
       </c>
       <c r="C348">
-        <v>7.6E-05</v>
+        <v>9.3E-05</v>
       </c>
       <c r="D348">
-        <v>7.2E-05</v>
+        <v>0.000103</v>
       </c>
       <c r="F348">
-        <v>0.051274</v>
+        <v>-0.107214</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349">
-        <v>190</v>
+        <v>2694</v>
+      </c>
+      <c r="B349" t="s">
+        <v>6</v>
       </c>
       <c r="C349">
-        <v>0.005631</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D349">
-        <v>0.003266</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F349">
-        <v>0.419983</v>
+        <v>-0.898931</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350">
-        <v>1615</v>
+        <v>2087</v>
+      </c>
+      <c r="B350" t="s">
+        <v>6</v>
       </c>
       <c r="C350">
-        <v>0.000139</v>
+        <v>0.00106</v>
       </c>
       <c r="D350">
-        <v>0.000116</v>
+        <v>0.000857</v>
       </c>
       <c r="F350">
-        <v>0.160155</v>
+        <v>0.191395</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351">
-        <v>1034</v>
+        <v>4192</v>
+      </c>
+      <c r="B351" t="s">
+        <v>6</v>
       </c>
       <c r="C351">
-        <v>1E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="D351">
-        <v>3.7E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="F351">
-        <v>-29.189764</v>
+        <v>-2.299278</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352">
-        <v>1293</v>
+        <v>2842</v>
+      </c>
+      <c r="B352" t="s">
+        <v>6</v>
       </c>
       <c r="C352">
-        <v>8.7E-05</v>
+        <v>0.003277</v>
       </c>
       <c r="D352">
-        <v>8.3E-05</v>
+        <v>0.002974</v>
       </c>
       <c r="F352">
-        <v>0.053266</v>
+        <v>0.092533</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353">
-        <v>600</v>
+        <v>2401</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
       </c>
       <c r="C353">
-        <v>0.007011</v>
+        <v>0.000589</v>
       </c>
       <c r="D353">
-        <v>0.006673</v>
+        <v>0.000354</v>
       </c>
       <c r="F353">
-        <v>0.048197</v>
+        <v>0.399828</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354">
-        <v>1778</v>
+        <v>2265</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
       </c>
       <c r="C354">
-        <v>2E-06</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D354">
-        <v>4E-06</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F354">
-        <v>-0.664335</v>
+        <v>0.12161</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355">
-        <v>1813</v>
+        <v>3353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
       </c>
       <c r="C355">
-        <v>0.00017</v>
+        <v>0.000218</v>
       </c>
       <c r="D355">
-        <v>0.000214</v>
+        <v>0.000135</v>
       </c>
       <c r="F355">
-        <v>-0.260987</v>
+        <v>0.382396</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356">
-        <v>1603</v>
+        <v>3455</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
       </c>
       <c r="C356">
-        <v>6.4E-05</v>
+        <v>0.00704</v>
       </c>
       <c r="D356">
-        <v>7.6E-05</v>
+        <v>0.006927</v>
       </c>
       <c r="F356">
-        <v>-0.197189</v>
+        <v>0.016006</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357">
-        <v>1727</v>
+        <v>3967</v>
+      </c>
+      <c r="B357" t="s">
+        <v>6</v>
       </c>
       <c r="C357">
-        <v>0.000286</v>
+        <v>6E-06</v>
       </c>
       <c r="D357">
-        <v>0.000203</v>
+        <v>5E-06</v>
       </c>
       <c r="F357">
-        <v>0.291463</v>
+        <v>0.098803</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358">
-        <v>1230</v>
+        <v>4348</v>
+      </c>
+      <c r="B358" t="s">
+        <v>6</v>
       </c>
       <c r="C358">
-        <v>2.8E-05</v>
+        <v>0.000597</v>
       </c>
       <c r="D358">
-        <v>1.2E-05</v>
+        <v>0.000488</v>
       </c>
       <c r="F358">
-        <v>0.583352</v>
+        <v>0.182607</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359">
-        <v>993</v>
+        <v>2554</v>
+      </c>
+      <c r="B359" t="s">
+        <v>6</v>
       </c>
       <c r="C359">
-        <v>0.000331</v>
+        <v>0.000646</v>
       </c>
       <c r="D359">
-        <v>0.000184</v>
+        <v>0.000722</v>
       </c>
       <c r="F359">
-        <v>0.443906</v>
+        <v>-0.117717</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360">
-        <v>1389</v>
+        <v>3752</v>
+      </c>
+      <c r="B360" t="s">
+        <v>6</v>
       </c>
       <c r="C360">
-        <v>0.000423</v>
+        <v>5.4E-05</v>
       </c>
       <c r="D360">
-        <v>0.000104</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F360">
-        <v>0.753401</v>
+        <v>-0.303497</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361">
-        <v>260</v>
+        <v>2391</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
       </c>
       <c r="C361">
-        <v>0.00026</v>
+        <v>0.001004</v>
       </c>
       <c r="D361">
-        <v>0.000267</v>
+        <v>0.000843</v>
       </c>
       <c r="F361">
-        <v>-0.027127</v>
+        <v>0.160008</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362">
-        <v>109</v>
+        <v>4378</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
       </c>
       <c r="C362">
-        <v>0.00037</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="D362">
-        <v>0.000431</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F362">
-        <v>-0.163844</v>
+        <v>0.050296</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363">
-        <v>731</v>
+        <v>3884</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
       </c>
       <c r="C363">
-        <v>1.4E-05</v>
+        <v>0.000873</v>
       </c>
       <c r="D363">
-        <v>4.1E-05</v>
+        <v>0.001188</v>
       </c>
       <c r="F363">
-        <v>-1.835998</v>
+        <v>-0.360652</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364">
-        <v>798</v>
+        <v>2135</v>
+      </c>
+      <c r="B364" t="s">
+        <v>6</v>
       </c>
       <c r="C364">
-        <v>4.3E-05</v>
+        <v>0.001924</v>
       </c>
       <c r="D364">
-        <v>2.6E-05</v>
+        <v>0.002302</v>
       </c>
       <c r="F364">
-        <v>0.402785</v>
+        <v>-0.196682</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365">
-        <v>416</v>
+        <v>3323</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
       </c>
       <c r="C365">
-        <v>0.001374</v>
+        <v>0.000309</v>
       </c>
       <c r="D365">
-        <v>0.001172</v>
+        <v>0.000177</v>
       </c>
       <c r="F365">
-        <v>0.146713</v>
+        <v>0.426694</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366">
-        <v>1103</v>
+        <v>3805</v>
+      </c>
+      <c r="B366" t="s">
+        <v>6</v>
       </c>
       <c r="C366">
-        <v>0.000123</v>
+        <v>6.2E-05</v>
       </c>
       <c r="D366">
-        <v>0.00011</v>
+        <v>7.3E-05</v>
       </c>
       <c r="F366">
-        <v>0.109077</v>
+        <v>-0.177474</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367">
-        <v>557</v>
+        <v>3169</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
       </c>
       <c r="C367">
-        <v>0.001796</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="D367">
-        <v>0.000937</v>
+        <v>0.000113</v>
       </c>
       <c r="F367">
-        <v>0.478333</v>
+        <v>-0.19554</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368">
-        <v>1284</v>
+        <v>3423</v>
+      </c>
+      <c r="B368" t="s">
+        <v>6</v>
       </c>
       <c r="C368">
-        <v>0.000873</v>
+        <v>9.8E-05</v>
       </c>
       <c r="D368">
-        <v>0.001123</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F368">
-        <v>-0.28675</v>
+        <v>0.165318</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369">
-        <v>585</v>
+        <v>2589</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
       </c>
       <c r="C369">
-        <v>3.9E-05</v>
+        <v>0.001258</v>
       </c>
       <c r="D369">
-        <v>2.4E-05</v>
+        <v>0.000971</v>
       </c>
       <c r="F369">
-        <v>0.389195</v>
+        <v>0.227887</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370">
-        <v>1091</v>
+        <v>3819</v>
+      </c>
+      <c r="B370" t="s">
+        <v>6</v>
       </c>
       <c r="C370">
-        <v>2.3E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D370">
-        <v>2.6E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F370">
-        <v>-0.134517</v>
+        <v>0.329981</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371">
-        <v>1626</v>
+        <v>3812</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
       </c>
       <c r="C371">
-        <v>0.000175</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D371">
-        <v>0.000116</v>
+        <v>5.8E-05</v>
       </c>
       <c r="F371">
-        <v>0.337509</v>
+        <v>-0.602895</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372">
-        <v>309</v>
+        <v>3291</v>
+      </c>
+      <c r="B372" t="s">
+        <v>6</v>
       </c>
       <c r="C372">
-        <v>1.7E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="D372">
-        <v>3E-06</v>
+        <v>2E-05</v>
       </c>
       <c r="F372">
-        <v>0.796924</v>
+        <v>-2.440831</v>
       </c>
     </row>
   </sheetData>
